--- a/analysis_page_rate.xlsx
+++ b/analysis_page_rate.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marctost/Documents/CMS_group/excel_CSC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marctost/Documents/CMS_group/miniCSC904/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="27760" windowHeight="16900" xr2:uid="{1380874E-94DD-DB43-831B-EAA6682829BF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16900" xr2:uid="{1380874E-94DD-DB43-831B-EAA6682829BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="20">
   <si>
     <t>Voltage (kV)</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Bottom (3,1)</t>
+  </si>
+  <si>
+    <t>Run 4</t>
+  </si>
+  <si>
+    <t>run4</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08157898-23EE-3741-B1EB-A1C0CD9DDBD8}">
-  <dimension ref="A1:AW122"/>
+  <dimension ref="A1:BI122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="S102" sqref="S102"/>
+    <sheetView tabSelected="1" topLeftCell="H92" zoomScale="85" workbookViewId="0">
+      <selection activeCell="W106" sqref="W106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,7 +461,7 @@
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>5</v>
       </c>
@@ -468,8 +474,11 @@
       <c r="AM1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -506,8 +515,17 @@
       <c r="AU2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,8 +637,35 @@
       <c r="AW3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -733,8 +778,35 @@
       <c r="AW4" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.4</v>
       </c>
@@ -846,8 +918,35 @@
       <c r="AW5" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2.5</v>
       </c>
@@ -959,8 +1058,35 @@
       <c r="AW6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2.6</v>
       </c>
@@ -1072,8 +1198,35 @@
       <c r="AW7" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2.7</v>
       </c>
@@ -1185,8 +1338,35 @@
       <c r="AW8" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2.8</v>
       </c>
@@ -1298,8 +1478,35 @@
       <c r="AW9" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2.85</v>
       </c>
@@ -1411,8 +1618,35 @@
       <c r="AW10" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY10" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2.9</v>
       </c>
@@ -1524,8 +1758,35 @@
       <c r="AW11" s="1">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY11" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>52</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>39.1</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2.95</v>
       </c>
@@ -1637,8 +1898,35 @@
       <c r="AW12" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY12" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -1750,8 +2038,35 @@
       <c r="AW13" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY13" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>111.3</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>94.8</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>83</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>109.6</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>3.05</v>
       </c>
@@ -1863,8 +2178,35 @@
       <c r="AW14" s="1">
         <v>103.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY14" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>172.5</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>140.9</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>134.6</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>160.5</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>123.8</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>118.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3.1</v>
       </c>
@@ -1976,8 +2318,35 @@
       <c r="AW15" s="1">
         <v>152.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY15" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>199.9</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>182.4</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>177.2</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>185.6</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>158.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3.15</v>
       </c>
@@ -2089,8 +2458,35 @@
       <c r="AW16" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY16" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>7</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>213.7</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>209.7</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>203.9</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>195.2</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>179.1</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>175.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3.2</v>
       </c>
@@ -2202,8 +2598,35 @@
       <c r="AW17" s="1">
         <v>207.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY17" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>219.3</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>212.5</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>210.3</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>204.5</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>192.2</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>187.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3.25</v>
       </c>
@@ -2315,8 +2738,35 @@
       <c r="AW18" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY18" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>240.8</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>240.4</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>232.8</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>212.8</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>200.5</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>196.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3.3</v>
       </c>
@@ -2428,8 +2878,35 @@
       <c r="AW19" s="1">
         <v>229.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY19" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>233.9</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>234.3</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>225.5</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>222.2</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>208</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>203.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3.35</v>
       </c>
@@ -2541,8 +3018,35 @@
       <c r="AW20" s="1">
         <v>224.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY20" s="1">
+        <v>32</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>231.4</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>225.2</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>221.9</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>234</v>
+      </c>
+      <c r="BH20" s="1">
+        <v>218.1</v>
+      </c>
+      <c r="BI20" s="1">
+        <v>212.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>3.4</v>
       </c>
@@ -2654,8 +3158,35 @@
       <c r="AW21" s="1">
         <v>237.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY21" s="1">
+        <v>39.6</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>23</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>244.6</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>240.6</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>231.8</v>
+      </c>
+      <c r="BG21" s="1">
+        <v>254.9</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>230.5</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>3.45</v>
       </c>
@@ -2767,8 +3298,35 @@
       <c r="AW22" s="1">
         <v>235.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY22" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>26.7</v>
+      </c>
+      <c r="BC22" s="1">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>253.2</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>245.6</v>
+      </c>
+      <c r="BG22" s="1">
+        <v>261</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>230.1</v>
+      </c>
+      <c r="BI22" s="1">
+        <v>223.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>3.5</v>
       </c>
@@ -2880,8 +3438,35 @@
       <c r="AW23" s="1">
         <v>236.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY23" s="1">
+        <v>58.2</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>32.1</v>
+      </c>
+      <c r="BC23" s="1">
+        <v>273.3</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>253.5</v>
+      </c>
+      <c r="BE23" s="1">
+        <v>247.3</v>
+      </c>
+      <c r="BG23" s="1">
+        <v>283.89999999999998</v>
+      </c>
+      <c r="BH23" s="1">
+        <v>246.8</v>
+      </c>
+      <c r="BI23" s="1">
+        <v>239.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>3.55</v>
       </c>
@@ -2993,8 +3578,35 @@
       <c r="AW24" s="1">
         <v>251.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY24" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="BC24" s="1">
+        <v>297.8</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>270.8</v>
+      </c>
+      <c r="BE24" s="1">
+        <v>265.7</v>
+      </c>
+      <c r="BG24" s="1">
+        <v>308</v>
+      </c>
+      <c r="BH24" s="1">
+        <v>260.60000000000002</v>
+      </c>
+      <c r="BI24" s="1">
+        <v>251.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>3.6</v>
       </c>
@@ -3106,8 +3718,35 @@
       <c r="AW25" s="1">
         <v>263.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY25" s="1">
+        <v>91</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="BA25" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="BC25" s="1">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="BD25" s="1">
+        <v>277.8</v>
+      </c>
+      <c r="BE25" s="1">
+        <v>268.3</v>
+      </c>
+      <c r="BG25" s="1">
+        <v>331.8</v>
+      </c>
+      <c r="BH25" s="1">
+        <v>279.2</v>
+      </c>
+      <c r="BI25" s="1">
+        <v>266.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>3.65</v>
       </c>
@@ -3219,8 +3858,35 @@
       <c r="AW26" s="1">
         <v>267.39999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY26" s="1">
+        <v>129.1</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="BA26" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="BC26" s="1">
+        <v>349.2</v>
+      </c>
+      <c r="BD26" s="1">
+        <v>317.3</v>
+      </c>
+      <c r="BE26" s="1">
+        <v>293.3</v>
+      </c>
+      <c r="BG26" s="1">
+        <v>362</v>
+      </c>
+      <c r="BH26" s="1">
+        <v>302.7</v>
+      </c>
+      <c r="BI26" s="1">
+        <v>285.39999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>3.7</v>
       </c>
@@ -3332,8 +3998,35 @@
       <c r="AW27" s="1">
         <v>285.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY27" s="1">
+        <v>160.1</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>98.7</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="BC27" s="1">
+        <v>387.8</v>
+      </c>
+      <c r="BD27" s="1">
+        <v>338.9</v>
+      </c>
+      <c r="BE27" s="1">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="BG27" s="1">
+        <v>429.3</v>
+      </c>
+      <c r="BH27" s="1">
+        <v>356.8</v>
+      </c>
+      <c r="BI27" s="1">
+        <v>322.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>3.75</v>
       </c>
@@ -3445,8 +4138,35 @@
       <c r="AW28" s="1">
         <v>324.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY28" s="1">
+        <v>195.3</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>118.1</v>
+      </c>
+      <c r="BC28" s="1">
+        <v>434.2</v>
+      </c>
+      <c r="BD28" s="1">
+        <v>381.7</v>
+      </c>
+      <c r="BE28" s="1">
+        <v>342.9</v>
+      </c>
+      <c r="BG28" s="1">
+        <v>524.9</v>
+      </c>
+      <c r="BH28" s="1">
+        <v>418.9</v>
+      </c>
+      <c r="BI28" s="1">
+        <v>378.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>3.8</v>
       </c>
@@ -3558,22 +4278,49 @@
       <c r="AW29" s="1">
         <v>353.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AY29" s="1">
+        <v>269.10000000000002</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>201.6</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>173.7</v>
+      </c>
+      <c r="BC29" s="1">
+        <v>518.70000000000005</v>
+      </c>
+      <c r="BD29" s="1">
+        <v>504.4</v>
+      </c>
+      <c r="BE29" s="1">
+        <v>405.6</v>
+      </c>
+      <c r="BG29" s="1">
+        <v>549.6</v>
+      </c>
+      <c r="BH29" s="1">
+        <v>463.3</v>
+      </c>
+      <c r="BI29" s="1">
+        <v>396.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>3</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -3589,32 +4336,41 @@
       <c r="F34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
         <v>13</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>12</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>14</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>15</v>
       </c>
       <c r="M34" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" t="s">
         <v>13</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>16</v>
       </c>
-      <c r="O34" t="s">
+      <c r="Q34" t="s">
         <v>14</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -3634,1379 +4390,1613 @@
         <f>AM4</f>
         <v>0.2</v>
       </c>
-      <c r="H35">
-        <f>D4</f>
+      <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="I35">
+        <f t="shared" ref="I35:I60" si="0">D4</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
         <f>P4</f>
         <v>18.899999999999999</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f>AB4</f>
         <v>0.5</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <f>AO4</f>
         <v>0</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O35">
         <f>E4</f>
         <v>0</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <f>Q4</f>
         <v>2</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <f>AO4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2.4</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C60" si="0">C5</f>
+        <f t="shared" ref="C36:C60" si="1">C5</f>
         <v>0.3</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D60" si="1">O5</f>
+        <f t="shared" ref="D36:D60" si="2">O5</f>
         <v>9</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E60" si="2">AA5</f>
+        <f t="shared" ref="E36:E60" si="3">AA5</f>
         <v>0.2</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F60" si="3">AM5</f>
+        <f t="shared" ref="F36:F60" si="4">AM5</f>
         <v>0.2</v>
       </c>
-      <c r="H36">
-        <f>D5</f>
-        <v>0</v>
+      <c r="G36" s="1">
+        <v>0.1</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:I60" si="4">P5</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f>P5</f>
         <v>41.2</v>
       </c>
-      <c r="J36">
-        <f t="shared" ref="J36:J60" si="5">AB5</f>
+      <c r="K36">
+        <f>AB5</f>
         <v>2.9</v>
       </c>
-      <c r="K36">
-        <f t="shared" ref="K36:K60" si="6">AO5</f>
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <f t="shared" ref="M36:M60" si="7">E5</f>
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f t="shared" ref="N36:N60" si="8">Q5</f>
+      <c r="L36">
+        <f>AO5</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="O36">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>Q5</f>
         <v>2.7</v>
       </c>
-      <c r="O36">
-        <f t="shared" ref="O36:O60" si="9">AC5</f>
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <f t="shared" ref="P36:P60" si="10">AO5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36">
+        <f>AC5</f>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f>AO5</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2.5</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="F37">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="H37">
-        <f>D6</f>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="4"/>
+      <c r="J37">
+        <f>P6</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="5"/>
+      <c r="K37">
+        <f>AB6</f>
         <v>3.6</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="7"/>
+      <c r="L37">
+        <f>AO6</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O37">
+        <f>E6</f>
         <v>0.1</v>
       </c>
-      <c r="N37">
-        <f t="shared" si="8"/>
+      <c r="P37">
+        <f>Q6</f>
         <v>0.8</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="9"/>
+      <c r="Q37">
+        <f>AC6</f>
         <v>0.1</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <f>AO6</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2.6</v>
       </c>
       <c r="C38">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>10.8</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="D38">
+        <v>0.2</v>
+      </c>
+      <c r="J38">
+        <f>P7</f>
+        <v>47</v>
+      </c>
+      <c r="K38">
+        <f>AB7</f>
+        <v>2.9</v>
+      </c>
+      <c r="L38">
+        <f>AO7</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O38">
+        <f>E7</f>
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <f>Q7</f>
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <f>AC7</f>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f>AO7</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C39">
         <f t="shared" si="1"/>
-        <v>10.8</v>
-      </c>
-      <c r="E38">
+        <v>2.8</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38">
+        <v>7.2</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="H38">
-        <f>D7</f>
+      <c r="F39">
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="5"/>
-        <v>2.9</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="8"/>
-        <v>2.9</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="C39">
+      <c r="G39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
-        <v>7.2</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J39">
+        <f>P8</f>
+        <v>10.1</v>
+      </c>
+      <c r="K39">
+        <f>AB8</f>
+        <v>3.3</v>
+      </c>
+      <c r="L39">
+        <f>AO8</f>
         <v>0.1</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
+      <c r="M39" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="O39">
+        <f>E8</f>
+        <v>0.1</v>
+      </c>
+      <c r="P39">
+        <f>Q8</f>
+        <v>1.8</v>
+      </c>
+      <c r="Q39">
+        <f>AC8</f>
+        <v>0.1</v>
+      </c>
+      <c r="R39">
+        <f>AO8</f>
+        <v>0.1</v>
+      </c>
+      <c r="S39" s="1">
         <v>0.2</v>
       </c>
-      <c r="H39">
-        <f>D8</f>
-        <v>0.3</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="4"/>
-        <v>10.1</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="10"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2.8</v>
       </c>
       <c r="C40">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>10.8</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J40">
+        <f>P9</f>
+        <v>32.9</v>
+      </c>
+      <c r="K40">
+        <f>AB9</f>
+        <v>3.5</v>
+      </c>
+      <c r="L40">
+        <f>AO9</f>
+        <v>0.5</v>
+      </c>
+      <c r="M40" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="O40">
+        <f>E9</f>
+        <v>0.7</v>
+      </c>
+      <c r="P40">
+        <f>Q9</f>
+        <v>3.7</v>
+      </c>
+      <c r="Q40">
+        <f>AC9</f>
+        <v>0.7</v>
+      </c>
+      <c r="R40">
+        <f>AO9</f>
+        <v>0.5</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>3.1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="J41">
+        <f>P10</f>
+        <v>12.6</v>
+      </c>
+      <c r="K41">
+        <f>AB10</f>
+        <v>3.6</v>
+      </c>
+      <c r="L41">
+        <f>AO10</f>
+        <v>0.8</v>
+      </c>
+      <c r="M41" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="O41">
+        <f>E10</f>
+        <v>1.2</v>
+      </c>
+      <c r="P41">
+        <f>Q10</f>
+        <v>2.6</v>
+      </c>
+      <c r="Q41">
+        <f>AC10</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R41">
+        <f>AO10</f>
+        <v>0.8</v>
+      </c>
+      <c r="S41" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>14.2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="D40">
+      <c r="J42">
+        <f>P11</f>
+        <v>30.6</v>
+      </c>
+      <c r="K42">
+        <f>AB11</f>
+        <v>5.3</v>
+      </c>
+      <c r="L42">
+        <f>AO11</f>
+        <v>1.8</v>
+      </c>
+      <c r="M42" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O42">
+        <f>E11</f>
+        <v>3.5</v>
+      </c>
+      <c r="P42">
+        <f>Q11</f>
+        <v>4.3</v>
+      </c>
+      <c r="Q42">
+        <f>AC11</f>
+        <v>1.4</v>
+      </c>
+      <c r="R42">
+        <f>AO11</f>
+        <v>1.8</v>
+      </c>
+      <c r="S42" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="C43">
         <f t="shared" si="1"/>
-        <v>10.8</v>
-      </c>
-      <c r="E40">
+        <v>8.5</v>
+      </c>
+      <c r="D43">
         <f t="shared" si="2"/>
-        <v>1.4</v>
-      </c>
-      <c r="F40">
+        <v>14.5</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="3"/>
-        <v>1.4</v>
-      </c>
-      <c r="H40">
-        <f>D9</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I40">
+        <v>2.8</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="4"/>
-        <v>32.9</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="7"/>
-        <v>0.7</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="8"/>
-        <v>3.7</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="9"/>
-        <v>0.7</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="C41">
+        <v>7.8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="D41">
+      <c r="J43">
+        <f>P12</f>
+        <v>24.3</v>
+      </c>
+      <c r="K43">
+        <f>AB12</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L43">
+        <f>AO12</f>
+        <v>2.4</v>
+      </c>
+      <c r="M43" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="O43">
+        <f>E12</f>
+        <v>3.7</v>
+      </c>
+      <c r="P43">
+        <f>Q12</f>
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <f>AC12</f>
+        <v>1.7</v>
+      </c>
+      <c r="R43">
+        <f>AO12</f>
+        <v>2.4</v>
+      </c>
+      <c r="S43" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>3</v>
+      </c>
+      <c r="C44">
         <f t="shared" si="1"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E41">
+        <v>9.5</v>
+      </c>
+      <c r="D44">
         <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-      <c r="F41">
+        <v>18.2</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G44" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="J44">
+        <f>P13</f>
+        <v>19.8</v>
+      </c>
+      <c r="K44">
+        <f>AB13</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L44">
+        <f>AO13</f>
+        <v>4.3</v>
+      </c>
+      <c r="M44" s="1">
+        <v>6</v>
+      </c>
+      <c r="O44">
+        <f>E13</f>
+        <v>5.5</v>
+      </c>
+      <c r="P44">
+        <f>Q13</f>
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <f>AC13</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R44">
+        <f>AO13</f>
+        <v>4.3</v>
+      </c>
+      <c r="S44" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>13.7</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>27.6</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>4.7</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="G45" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="J45">
+        <f>P14</f>
+        <v>35.9</v>
+      </c>
+      <c r="K45">
+        <f>AB14</f>
+        <v>7.1</v>
+      </c>
+      <c r="L45">
+        <f>AO14</f>
+        <v>4.8</v>
+      </c>
+      <c r="M45" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="O45">
+        <f>E14</f>
+        <v>6.7</v>
+      </c>
+      <c r="P45">
+        <f>Q14</f>
+        <v>11.4</v>
+      </c>
+      <c r="Q45">
+        <f>AC14</f>
         <v>3.1</v>
       </c>
-      <c r="H41">
-        <f>D10</f>
-        <v>1.5</v>
-      </c>
-      <c r="I41">
+      <c r="R45">
+        <f>AO14</f>
+        <v>4.8</v>
+      </c>
+      <c r="S45" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>19.2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>31.3</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="4"/>
-        <v>12.6</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="5"/>
-        <v>3.6</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="7"/>
-        <v>1.2</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="8"/>
-        <v>2.6</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="9"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="10"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="C42">
+        <v>23.6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="J46">
+        <f>P15</f>
+        <v>24.7</v>
+      </c>
+      <c r="K46">
+        <f>AB15</f>
+        <v>9.1</v>
+      </c>
+      <c r="L46">
+        <f>AO15</f>
+        <v>7</v>
+      </c>
+      <c r="M46" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="O46">
+        <f>E15</f>
+        <v>12.9</v>
+      </c>
+      <c r="P46">
+        <f>Q15</f>
+        <v>11</v>
+      </c>
+      <c r="Q46">
+        <f>AC15</f>
         <v>6.5</v>
       </c>
-      <c r="D42">
+      <c r="R46">
+        <f>AO15</f>
+        <v>7</v>
+      </c>
+      <c r="S46" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="C47">
         <f t="shared" si="1"/>
-        <v>14.2</v>
-      </c>
-      <c r="E42">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D47">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F42">
+        <v>37.6</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="3"/>
-        <v>4.8</v>
-      </c>
-      <c r="H42">
-        <f>D11</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I42">
+        <v>12.3</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="4"/>
         <v>30.6</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="5"/>
-        <v>5.3</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="8"/>
-        <v>4.3</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="9"/>
-        <v>1.4</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="C43">
+      <c r="G47" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="1"/>
-        <v>14.5</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="2"/>
-        <v>2.8</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
-        <v>7.8</v>
-      </c>
-      <c r="H43">
-        <f>D12</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="4"/>
-        <v>24.3</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="5"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="6"/>
-        <v>2.4</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="7"/>
-        <v>3.7</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="9"/>
-        <v>1.7</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="10"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="1"/>
-        <v>18.2</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="2"/>
-        <v>2.8</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="H44">
-        <f>D13</f>
-        <v>7.1</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="4"/>
-        <v>19.8</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="6"/>
-        <v>4.3</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="7"/>
-        <v>5.5</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="8"/>
+        <v>11.1</v>
+      </c>
+      <c r="J47">
+        <f>P16</f>
+        <v>28</v>
+      </c>
+      <c r="K47">
+        <f>AB16</f>
+        <v>8.6</v>
+      </c>
+      <c r="L47">
+        <f>AO16</f>
+        <v>11.2</v>
+      </c>
+      <c r="M47" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O47">
+        <f>E16</f>
+        <v>10.5</v>
+      </c>
+      <c r="P47">
+        <f>Q16</f>
+        <v>14.1</v>
+      </c>
+      <c r="Q47">
+        <f>AC16</f>
+        <v>7.4</v>
+      </c>
+      <c r="R47">
+        <f>AO16</f>
+        <v>11.2</v>
+      </c>
+      <c r="S47" s="1">
         <v>7</v>
       </c>
-      <c r="O44">
-        <f t="shared" si="9"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="10"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>3.05</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>13.7</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>27.6</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="H45">
-        <f>D14</f>
-        <v>7.7</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="4"/>
-        <v>35.9</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="5"/>
-        <v>7.1</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="6"/>
-        <v>4.8</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="7"/>
-        <v>6.7</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="9"/>
-        <v>3.1</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="10"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>19.2</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>31.3</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="3"/>
-        <v>23.6</v>
-      </c>
-      <c r="H46">
-        <f>D15</f>
-        <v>14.5</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="4"/>
-        <v>24.7</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="5"/>
-        <v>9.1</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="7"/>
-        <v>12.9</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="9"/>
-        <v>6.5</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>3.15</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="1"/>
-        <v>37.6</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="2"/>
-        <v>12.3</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="3"/>
-        <v>30.6</v>
-      </c>
-      <c r="H47">
-        <f>D16</f>
-        <v>11.1</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="5"/>
-        <v>8.6</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="6"/>
-        <v>11.2</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="8"/>
-        <v>14.1</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="9"/>
-        <v>7.4</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="10"/>
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>3.2</v>
       </c>
       <c r="C48">
+        <f t="shared" si="1"/>
+        <v>19.2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>50.2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G48" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="0"/>
-        <v>19.2</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>50.2</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="2"/>
-        <v>16.5</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="3"/>
-        <v>36.700000000000003</v>
-      </c>
-      <c r="H48">
-        <f>D17</f>
         <v>12.6</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="4"/>
+      <c r="J48">
+        <f>P17</f>
         <v>55.3</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="5"/>
+      <c r="K48">
+        <f>AB17</f>
         <v>12</v>
       </c>
-      <c r="K48">
-        <f t="shared" si="6"/>
+      <c r="L48">
+        <f>AO17</f>
         <v>14</v>
       </c>
-      <c r="M48">
-        <f t="shared" si="7"/>
+      <c r="M48" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="O48">
+        <f>E17</f>
         <v>11.3</v>
       </c>
-      <c r="N48">
-        <f t="shared" si="8"/>
+      <c r="P48">
+        <f>Q17</f>
         <v>19.8</v>
       </c>
-      <c r="O48">
-        <f t="shared" si="9"/>
+      <c r="Q48">
+        <f>AC17</f>
         <v>8.9</v>
       </c>
-      <c r="P48">
-        <f t="shared" si="10"/>
+      <c r="R48">
+        <f>AO17</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S48" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>3.25</v>
       </c>
       <c r="C49">
+        <f t="shared" si="1"/>
+        <v>23.1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>66.3</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>44.9</v>
+      </c>
+      <c r="G49" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="0"/>
-        <v>23.1</v>
-      </c>
-      <c r="D49">
+        <v>14.4</v>
+      </c>
+      <c r="J49">
+        <f>P18</f>
+        <v>44.4</v>
+      </c>
+      <c r="K49">
+        <f>AB18</f>
+        <v>18.8</v>
+      </c>
+      <c r="L49">
+        <f>AO18</f>
+        <v>18.5</v>
+      </c>
+      <c r="M49" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="O49">
+        <f>E18</f>
+        <v>13.6</v>
+      </c>
+      <c r="P49">
+        <f>Q18</f>
+        <v>25.9</v>
+      </c>
+      <c r="Q49">
+        <f>AC18</f>
+        <v>13.6</v>
+      </c>
+      <c r="R49">
+        <f>AO18</f>
+        <v>18.5</v>
+      </c>
+      <c r="S49" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="C50">
         <f t="shared" si="1"/>
-        <v>66.3</v>
-      </c>
-      <c r="E49">
+        <v>25.2</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="F49">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>51.2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="J50">
+        <f>P19</f>
+        <v>61.8</v>
+      </c>
+      <c r="K50">
+        <f>AB19</f>
+        <v>21</v>
+      </c>
+      <c r="L50">
+        <f>AO19</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M50" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="O50">
+        <f>E19</f>
+        <v>16</v>
+      </c>
+      <c r="P50">
+        <f>Q19</f>
+        <v>26.2</v>
+      </c>
+      <c r="Q50">
+        <f>AC19</f>
+        <v>18.3</v>
+      </c>
+      <c r="R50">
+        <f>AO19</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="S50" s="1">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>28.4</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="3"/>
         <v>44.9</v>
       </c>
-      <c r="H49">
-        <f>D18</f>
-        <v>14.4</v>
-      </c>
-      <c r="I49">
+      <c r="F51">
         <f t="shared" si="4"/>
-        <v>44.4</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="5"/>
-        <v>18.8</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="6"/>
-        <v>18.5</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="7"/>
-        <v>13.6</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="8"/>
-        <v>25.9</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="9"/>
-        <v>13.6</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="10"/>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="C50">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="G51" s="1">
+        <v>32</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="1"/>
-        <v>72.599999999999994</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="2"/>
-        <v>38.299999999999997</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="3"/>
-        <v>51.2</v>
-      </c>
-      <c r="H50">
-        <f>D19</f>
-        <v>17.5</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="4"/>
-        <v>61.8</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="6"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="8"/>
-        <v>26.2</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="9"/>
-        <v>18.3</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="10"/>
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>3.35</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>28.4</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="1"/>
-        <v>71.099999999999994</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="2"/>
-        <v>44.9</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="3"/>
-        <v>65.400000000000006</v>
-      </c>
-      <c r="H51">
-        <f>D20</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="4"/>
+      <c r="J51">
+        <f>P20</f>
         <v>53.2</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="5"/>
+      <c r="K51">
+        <f>AB20</f>
         <v>23.4</v>
       </c>
-      <c r="K51">
-        <f t="shared" si="6"/>
+      <c r="L51">
+        <f>AO20</f>
         <v>26.8</v>
       </c>
-      <c r="M51">
-        <f t="shared" si="7"/>
+      <c r="M51" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="O51">
+        <f>E20</f>
         <v>19.100000000000001</v>
       </c>
-      <c r="N51">
-        <f t="shared" si="8"/>
+      <c r="P51">
+        <f>Q20</f>
         <v>30.7</v>
       </c>
-      <c r="O51">
-        <f t="shared" si="9"/>
+      <c r="Q51">
+        <f>AC20</f>
         <v>19.399999999999999</v>
       </c>
-      <c r="P51">
-        <f t="shared" si="10"/>
+      <c r="R51">
+        <f>AO20</f>
         <v>26.8</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S51" s="1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>3.4</v>
       </c>
       <c r="C52">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>91.2</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>72.8</v>
+      </c>
+      <c r="G52" s="1">
+        <v>39.6</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="0"/>
-        <v>28.5</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
-        <v>91.2</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="2"/>
-        <v>50.6</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="3"/>
-        <v>72.8</v>
-      </c>
-      <c r="H52">
-        <f>D21</f>
         <v>19.3</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="4"/>
+      <c r="J52">
+        <f>P21</f>
         <v>58.3</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="5"/>
+      <c r="K52">
+        <f>AB21</f>
         <v>27.7</v>
       </c>
-      <c r="K52">
-        <f t="shared" si="6"/>
+      <c r="L52">
+        <f>AO21</f>
         <v>30.5</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="7"/>
+      <c r="M52" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="O52">
+        <f>E21</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="N52">
-        <f t="shared" si="8"/>
+      <c r="P52">
+        <f>Q21</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="O52">
-        <f t="shared" si="9"/>
+      <c r="Q52">
+        <f>AC21</f>
         <v>24.7</v>
       </c>
-      <c r="P52">
-        <f t="shared" si="10"/>
+      <c r="R52">
+        <f>AO21</f>
         <v>30.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S52" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>3.45</v>
       </c>
       <c r="C53">
+        <f t="shared" si="1"/>
+        <v>36.1</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>103.5</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>77.8</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="G53" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="0"/>
-        <v>36.1</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="1"/>
-        <v>103.5</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="2"/>
-        <v>77.8</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="3"/>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="H53">
-        <f>D22</f>
         <v>23.6</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="4"/>
+      <c r="J53">
+        <f>P22</f>
         <v>80.3</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="5"/>
+      <c r="K53">
+        <f>AB22</f>
         <v>39.4</v>
       </c>
-      <c r="K53">
-        <f t="shared" si="6"/>
+      <c r="L53">
+        <f>AO22</f>
         <v>35.5</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="7"/>
+      <c r="M53" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="O53">
+        <f>E22</f>
         <v>21</v>
       </c>
-      <c r="N53">
-        <f t="shared" si="8"/>
+      <c r="P53">
+        <f>Q22</f>
         <v>45.1</v>
       </c>
-      <c r="O53">
-        <f t="shared" si="9"/>
+      <c r="Q53">
+        <f>AC22</f>
         <v>34.5</v>
       </c>
-      <c r="P53">
-        <f t="shared" si="10"/>
+      <c r="R53">
+        <f>AO22</f>
         <v>35.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S53" s="1">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>3.5</v>
       </c>
       <c r="C54">
+        <f t="shared" si="1"/>
+        <v>44.3</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>103.2</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>96.7</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="G54" s="1">
+        <v>58.2</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="0"/>
+        <v>27.3</v>
+      </c>
+      <c r="J54">
+        <f>P23</f>
+        <v>68.7</v>
+      </c>
+      <c r="K54">
+        <f>AB23</f>
+        <v>47.3</v>
+      </c>
+      <c r="L54">
+        <f>AO23</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="M54" s="1">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="O54">
+        <f>E23</f>
+        <v>24.2</v>
+      </c>
+      <c r="P54">
+        <f>Q23</f>
+        <v>43.9</v>
+      </c>
+      <c r="Q54">
+        <f>AC23</f>
         <v>44.3</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="1"/>
-        <v>103.2</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="2"/>
-        <v>96.7</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="3"/>
-        <v>73.099999999999994</v>
-      </c>
-      <c r="H54">
-        <f>D23</f>
-        <v>27.3</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="4"/>
-        <v>68.7</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="5"/>
-        <v>47.3</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="6"/>
+      <c r="R54">
+        <f>AO23</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="M54">
-        <f t="shared" si="7"/>
-        <v>24.2</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="8"/>
-        <v>43.9</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="9"/>
-        <v>44.3</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="10"/>
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S54" s="1">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>3.55</v>
       </c>
       <c r="C55">
+        <f t="shared" si="1"/>
+        <v>58.6</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>144.1</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>114.7</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="G55" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="0"/>
-        <v>58.6</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="1"/>
-        <v>144.1</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="2"/>
-        <v>114.7</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-      <c r="H55">
-        <f>D24</f>
         <v>33.200000000000003</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="4"/>
+      <c r="J55">
+        <f>P24</f>
         <v>116.1</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="5"/>
+      <c r="K55">
+        <f>AB24</f>
         <v>59.7</v>
       </c>
-      <c r="K55">
-        <f t="shared" si="6"/>
+      <c r="L55">
+        <f>AO24</f>
         <v>45.9</v>
       </c>
-      <c r="M55">
-        <f t="shared" si="7"/>
+      <c r="M55" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="O55">
+        <f>E24</f>
         <v>31.6</v>
       </c>
-      <c r="N55">
-        <f t="shared" si="8"/>
+      <c r="P55">
+        <f>Q24</f>
         <v>65.7</v>
       </c>
-      <c r="O55">
-        <f t="shared" si="9"/>
+      <c r="Q55">
+        <f>AC24</f>
         <v>54.7</v>
       </c>
-      <c r="P55">
-        <f t="shared" si="10"/>
+      <c r="R55">
+        <f>AO24</f>
         <v>45.9</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S55" s="1">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>3.6</v>
       </c>
       <c r="C56">
+        <f t="shared" si="1"/>
+        <v>63.7</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>174.3</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>149.30000000000001</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>122.4</v>
+      </c>
+      <c r="G56" s="1">
+        <v>91</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="0"/>
-        <v>63.7</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="1"/>
-        <v>174.3</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="2"/>
-        <v>149.30000000000001</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="3"/>
-        <v>122.4</v>
-      </c>
-      <c r="H56">
-        <f>D25</f>
         <v>37.6</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="4"/>
+      <c r="J56">
+        <f>P25</f>
         <v>125.2</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="5"/>
+      <c r="K56">
+        <f>AB25</f>
         <v>79.8</v>
       </c>
-      <c r="K56">
-        <f t="shared" si="6"/>
+      <c r="L56">
+        <f>AO25</f>
         <v>54.9</v>
       </c>
-      <c r="M56">
-        <f t="shared" si="7"/>
+      <c r="M56" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="O56">
+        <f>E25</f>
         <v>35</v>
       </c>
-      <c r="N56">
-        <f t="shared" si="8"/>
+      <c r="P56">
+        <f>Q25</f>
         <v>86.9</v>
       </c>
-      <c r="O56">
-        <f t="shared" si="9"/>
+      <c r="Q56">
+        <f>AC25</f>
         <v>70.5</v>
       </c>
-      <c r="P56">
-        <f t="shared" si="10"/>
+      <c r="R56">
+        <f>AO25</f>
         <v>54.9</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S56" s="1">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>3.65</v>
       </c>
       <c r="C57">
+        <f t="shared" si="1"/>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>234.2</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>191.3</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>146.9</v>
+      </c>
+      <c r="G57" s="1">
+        <v>129.1</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="0"/>
-        <v>77.400000000000006</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="1"/>
-        <v>234.2</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="2"/>
-        <v>191.3</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="3"/>
-        <v>146.9</v>
-      </c>
-      <c r="H57">
-        <f>D26</f>
         <v>46.4</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="4"/>
+      <c r="J57">
+        <f>P26</f>
         <v>175</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="5"/>
+      <c r="K57">
+        <f>AB26</f>
         <v>98.8</v>
       </c>
-      <c r="K57">
-        <f t="shared" si="6"/>
+      <c r="L57">
+        <f>AO26</f>
         <v>68.8</v>
       </c>
-      <c r="M57">
-        <f t="shared" si="7"/>
+      <c r="M57" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="O57">
+        <f>E26</f>
         <v>43.1</v>
       </c>
-      <c r="N57">
-        <f t="shared" si="8"/>
+      <c r="P57">
+        <f>Q26</f>
         <v>123.4</v>
       </c>
-      <c r="O57">
-        <f t="shared" si="9"/>
+      <c r="Q57">
+        <f>AC26</f>
         <v>90.2</v>
       </c>
-      <c r="P57">
-        <f t="shared" si="10"/>
+      <c r="R57">
+        <f>AO26</f>
         <v>68.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S57" s="1">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>3.7</v>
       </c>
       <c r="C58">
+        <f t="shared" si="1"/>
+        <v>89.7</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>278.60000000000002</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>228.6</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>170.9</v>
+      </c>
+      <c r="G58" s="1">
+        <v>160.1</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="0"/>
-        <v>89.7</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="1"/>
-        <v>278.60000000000002</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="2"/>
-        <v>228.6</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="3"/>
-        <v>170.9</v>
-      </c>
-      <c r="H58">
-        <f>D27</f>
         <v>56.4</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="4"/>
+      <c r="J58">
+        <f>P27</f>
         <v>210.5</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="5"/>
+      <c r="K58">
+        <f>AB27</f>
         <v>125.8</v>
       </c>
-      <c r="K58">
-        <f t="shared" si="6"/>
+      <c r="L58">
+        <f>AO27</f>
         <v>75.3</v>
       </c>
-      <c r="M58">
-        <f t="shared" si="7"/>
+      <c r="M58" s="1">
+        <v>98.7</v>
+      </c>
+      <c r="O58">
+        <f>E27</f>
         <v>51.7</v>
       </c>
-      <c r="N58">
-        <f t="shared" si="8"/>
+      <c r="P58">
+        <f>Q27</f>
         <v>157.1</v>
       </c>
-      <c r="O58">
-        <f t="shared" si="9"/>
+      <c r="Q58">
+        <f>AC27</f>
         <v>110.4</v>
       </c>
-      <c r="P58">
-        <f t="shared" si="10"/>
+      <c r="R58">
+        <f>AO27</f>
         <v>75.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S58" s="1">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>3.75</v>
       </c>
       <c r="C59">
+        <f t="shared" si="1"/>
+        <v>103.4</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>339.6</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>330.8</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>235.6</v>
+      </c>
+      <c r="G59" s="1">
+        <v>195.3</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="0"/>
-        <v>103.4</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="1"/>
-        <v>339.6</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="2"/>
-        <v>330.8</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="3"/>
-        <v>235.6</v>
-      </c>
-      <c r="H59">
-        <f>D28</f>
         <v>71.900000000000006</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="4"/>
+      <c r="J59">
+        <f>P28</f>
         <v>251.9</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="5"/>
+      <c r="K59">
+        <f>AB28</f>
         <v>166.3</v>
       </c>
-      <c r="K59">
-        <f t="shared" si="6"/>
+      <c r="L59">
+        <f>AO28</f>
         <v>99.9</v>
       </c>
-      <c r="M59">
-        <f t="shared" si="7"/>
+      <c r="M59" s="1">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="O59">
+        <f>E28</f>
         <v>64</v>
       </c>
-      <c r="N59">
-        <f t="shared" si="8"/>
+      <c r="P59">
+        <f>Q28</f>
         <v>199.8</v>
       </c>
-      <c r="O59">
-        <f t="shared" si="9"/>
+      <c r="Q59">
+        <f>AC28</f>
         <v>148.19999999999999</v>
       </c>
-      <c r="P59">
-        <f t="shared" si="10"/>
+      <c r="R59">
+        <f>AO28</f>
         <v>99.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S59" s="1">
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>3.8</v>
       </c>
       <c r="C60">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>390.9</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>423.5</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>239.4</v>
+      </c>
+      <c r="G60" s="1">
+        <v>269.10000000000002</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="1"/>
-        <v>390.9</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="2"/>
-        <v>423.5</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="3"/>
-        <v>239.4</v>
-      </c>
-      <c r="H60">
-        <f>D29</f>
         <v>77.900000000000006</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="4"/>
+      <c r="J60">
+        <f>P29</f>
         <v>298.7</v>
       </c>
-      <c r="J60">
-        <f t="shared" si="5"/>
+      <c r="K60">
+        <f>AB29</f>
         <v>219.8</v>
       </c>
-      <c r="K60">
-        <f t="shared" si="6"/>
+      <c r="L60">
+        <f>AO29</f>
         <v>119.7</v>
       </c>
-      <c r="M60">
-        <f t="shared" si="7"/>
+      <c r="M60" s="1">
+        <v>201.6</v>
+      </c>
+      <c r="O60">
+        <f>E29</f>
         <v>74</v>
       </c>
-      <c r="N60">
-        <f t="shared" si="8"/>
+      <c r="P60">
+        <f>Q29</f>
         <v>222.5</v>
       </c>
-      <c r="O60">
-        <f t="shared" si="9"/>
+      <c r="Q60">
+        <f>AC29</f>
         <v>198.5</v>
       </c>
-      <c r="P60">
-        <f t="shared" si="10"/>
+      <c r="R60">
+        <f>AO29</f>
         <v>119.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S60" s="1">
+        <v>173.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>10</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>3</v>
       </c>
-      <c r="M64" t="s">
+      <c r="O64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>0</v>
       </c>
@@ -5022,32 +6012,41 @@
       <c r="F65" t="s">
         <v>15</v>
       </c>
-      <c r="H65" t="s">
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s">
         <v>13</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>12</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>14</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>15</v>
       </c>
       <c r="M65" t="s">
+        <v>19</v>
+      </c>
+      <c r="O65" t="s">
         <v>13</v>
       </c>
-      <c r="N65" t="s">
+      <c r="P65" t="s">
         <v>16</v>
       </c>
-      <c r="O65" t="s">
+      <c r="Q65" t="s">
         <v>14</v>
       </c>
-      <c r="P65" t="s">
+      <c r="R65" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>0</v>
       </c>
@@ -5067,1382 +6066,1694 @@
         <f>AQ4-F35</f>
         <v>-0.2</v>
       </c>
-      <c r="H66">
-        <f>H4-H35</f>
+      <c r="G66">
+        <f>BC4-G35</f>
         <v>0</v>
       </c>
       <c r="I66">
-        <f>T4-I35</f>
+        <f>H4-I35</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>T4-J35</f>
         <v>11.200000000000003</v>
       </c>
-      <c r="J66">
-        <f>AF4-J35</f>
+      <c r="K66">
+        <f>AF4-K35</f>
         <v>3.3</v>
       </c>
-      <c r="K66">
-        <f>AR4-K35</f>
+      <c r="L66">
+        <f>AR4-L35</f>
         <v>0.2</v>
       </c>
       <c r="M66">
-        <f>I4-M35</f>
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <f>U4-N35</f>
-        <v>0</v>
+        <f>BD4-M35</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O66">
-        <f>AG4-O35</f>
+        <f>I4-O35</f>
         <v>0</v>
       </c>
       <c r="P66">
-        <f>AS4-P35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+        <f>U4-P35</f>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f>AG4-Q35</f>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f>AS4-R35</f>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f>BE4-S35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2.4</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C91" si="11">G5-C36</f>
+        <f t="shared" ref="C67:C91" si="5">G5-C36</f>
         <v>-0.19999999999999998</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D91" si="12">S5-D36</f>
+        <f t="shared" ref="D67:D91" si="6">S5-D36</f>
         <v>-2.7</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E91" si="13">AE5-E36</f>
+        <f t="shared" ref="E67:E91" si="7">AE5-E36</f>
         <v>-0.1</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F91" si="14">AQ5-F36</f>
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H91" si="15">H5-H36</f>
+        <f t="shared" ref="F67:F91" si="8">AQ5-F36</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G91" si="9">BC5-G36</f>
+        <v>-0.1</v>
+      </c>
+      <c r="I67">
+        <f>H5-I36</f>
         <v>0.1</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I67:I91" si="16">T5-I36</f>
+      <c r="J67">
+        <f>T5-J36</f>
         <v>-20.000000000000004</v>
       </c>
-      <c r="J67">
-        <f t="shared" ref="J67:J91" si="17">AF5-J36</f>
+      <c r="K67">
+        <f>AF5-K36</f>
         <v>-0.10000000000000009</v>
       </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K91" si="18">AR5-K36</f>
+      <c r="L67">
+        <f>AR5-L36</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M91" si="19">I5-M36</f>
+        <f t="shared" ref="M67:M91" si="10">BD5-M36</f>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="O67">
+        <f>I5-O36</f>
         <v>0.1</v>
       </c>
-      <c r="N67">
-        <f t="shared" ref="N67:N91" si="20">U5-N36</f>
+      <c r="P67">
+        <f>U5-P36</f>
         <v>-2</v>
       </c>
-      <c r="O67">
-        <f t="shared" ref="O67:O91" si="21">AG5-O36</f>
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <f t="shared" ref="P67:P91" si="22">AS5-P36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67">
+        <f>AG5-Q36</f>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f>AS5-R36</f>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ref="S67:S91" si="11">BE5-S36</f>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2.5</v>
       </c>
       <c r="C68">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="7"/>
+        <v>-0.4</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>-0.2</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f>H6-I37</f>
+        <v>-0.1</v>
+      </c>
+      <c r="J68">
+        <f>T6-J37</f>
+        <v>-3.9000000000000021</v>
+      </c>
+      <c r="K68">
+        <f>AF6-K37</f>
+        <v>-2</v>
+      </c>
+      <c r="L68">
+        <f>AR6-L37</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="10"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O68">
+        <f>I6-O37</f>
+        <v>-0.1</v>
+      </c>
+      <c r="P68">
+        <f>U6-P37</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Q68">
+        <f>AG6-Q37</f>
+        <v>-0.1</v>
+      </c>
+      <c r="R68">
+        <f>AS6-R37</f>
+        <v>0</v>
+      </c>
+      <c r="S68">
         <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="13"/>
-        <v>-0.4</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="14"/>
-        <v>-0.2</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="15"/>
-        <v>-0.1</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="16"/>
-        <v>-3.9000000000000021</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="17"/>
-        <v>-2</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="18"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="19"/>
-        <v>-0.1</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="20"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="21"/>
-        <v>-0.1</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2.6</v>
       </c>
       <c r="C69">
+        <f t="shared" si="5"/>
+        <v>-2.1</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>-3.9000000000000004</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>-0.1</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="9"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I69">
+        <f>H7-I38</f>
+        <v>-0.2</v>
+      </c>
+      <c r="J69">
+        <f>T7-J38</f>
+        <v>-25.3</v>
+      </c>
+      <c r="K69">
+        <f>AF7-K38</f>
+        <v>-1.5</v>
+      </c>
+      <c r="L69">
+        <f>AR7-L38</f>
+        <v>0.1</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="10"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="O69">
+        <f>I7-O38</f>
+        <v>-1</v>
+      </c>
+      <c r="P69">
+        <f>U7-P38</f>
+        <v>-1</v>
+      </c>
+      <c r="Q69">
+        <f>AG7-Q38</f>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f>AS7-R38</f>
+        <v>0</v>
+      </c>
+      <c r="S69">
         <f t="shared" si="11"/>
-        <v>-2.1</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="12"/>
-        <v>-3.9000000000000004</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="14"/>
-        <v>-0.1</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="15"/>
         <v>-0.2</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="16"/>
-        <v>-25.3</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="17"/>
-        <v>-1.5</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="18"/>
-        <v>0.1</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2.7</v>
       </c>
       <c r="C70">
+        <f t="shared" si="5"/>
+        <v>-1.5999999999999999</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>1.4999999999999991</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="9"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="I70">
+        <f>H8-I39</f>
+        <v>2.1</v>
+      </c>
+      <c r="J70">
+        <f>T8-J39</f>
+        <v>8.5000000000000018</v>
+      </c>
+      <c r="K70">
+        <f>AF8-K39</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L70">
+        <f>AR8-L39</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="10"/>
+        <v>-3.8999999999999995</v>
+      </c>
+      <c r="O70">
+        <f>I8-O39</f>
+        <v>0.5</v>
+      </c>
+      <c r="P70">
+        <f>U8-P39</f>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="Q70">
+        <f>AG8-Q39</f>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <f>AS8-R39</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="S70">
         <f t="shared" si="11"/>
-        <v>-1.5999999999999999</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="12"/>
-        <v>1.4999999999999991</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="13"/>
-        <v>0.9</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="14"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="15"/>
-        <v>2.1</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="16"/>
-        <v>8.5000000000000018</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="17"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="18"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="20"/>
-        <v>-0.19999999999999996</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="22"/>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2.8</v>
       </c>
       <c r="C71">
+        <f t="shared" si="5"/>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="7"/>
+        <v>6.1</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="9"/>
+        <v>7.6</v>
+      </c>
+      <c r="I71">
+        <f>H9-I40</f>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="J71">
+        <f>T9-J40</f>
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="K71">
+        <f>AF9-K40</f>
+        <v>12.899999999999999</v>
+      </c>
+      <c r="L71">
+        <f>AR9-L40</f>
+        <v>13</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="O71">
+        <f>I9-O40</f>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="P71">
+        <f>U9-P40</f>
+        <v>4.8</v>
+      </c>
+      <c r="Q71">
+        <f>AG9-Q40</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R71">
+        <f>AS9-R40</f>
+        <v>4.2</v>
+      </c>
+      <c r="S71">
         <f t="shared" si="11"/>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="12"/>
-        <v>4.7999999999999989</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="13"/>
-        <v>6.1</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="14"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="15"/>
-        <v>17.099999999999998</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="16"/>
-        <v>7.8999999999999986</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="17"/>
-        <v>12.899999999999999</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="19"/>
-        <v>7.9999999999999991</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="20"/>
-        <v>4.8</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="21"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="22"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2.85</v>
       </c>
       <c r="C72">
+        <f t="shared" si="5"/>
+        <v>22.799999999999997</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>26.099999999999998</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="7"/>
+        <v>17.2</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>10.3</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="9"/>
+        <v>26.1</v>
+      </c>
+      <c r="I72">
+        <f>H10-I41</f>
+        <v>33.6</v>
+      </c>
+      <c r="J72">
+        <f>T10-J41</f>
+        <v>73.800000000000011</v>
+      </c>
+      <c r="K72">
+        <f>AF10-K41</f>
+        <v>29.299999999999997</v>
+      </c>
+      <c r="L72">
+        <f>AR10-L41</f>
+        <v>29.3</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="10"/>
+        <v>24.299999999999997</v>
+      </c>
+      <c r="O72">
+        <f>I10-O41</f>
+        <v>20.3</v>
+      </c>
+      <c r="P72">
+        <f>U10-P41</f>
+        <v>18.099999999999998</v>
+      </c>
+      <c r="Q72">
+        <f>AG10-Q41</f>
+        <v>13.6</v>
+      </c>
+      <c r="R72">
+        <f>AS10-R41</f>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="S72">
         <f t="shared" si="11"/>
-        <v>22.799999999999997</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="12"/>
-        <v>26.099999999999998</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="13"/>
-        <v>17.2</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="14"/>
-        <v>10.3</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="15"/>
-        <v>33.6</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="16"/>
-        <v>73.800000000000011</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="17"/>
-        <v>29.299999999999997</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="18"/>
-        <v>29.3</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="19"/>
-        <v>20.3</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="20"/>
-        <v>18.099999999999998</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="21"/>
-        <v>13.6</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="22"/>
-        <v>9.3999999999999986</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+        <v>18.200000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2.9</v>
       </c>
       <c r="C73">
+        <f t="shared" si="5"/>
+        <v>44.1</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>36.400000000000006</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="7"/>
+        <v>38.1</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>32.300000000000004</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="9"/>
+        <v>49.2</v>
+      </c>
+      <c r="I73">
+        <f>H11-I42</f>
+        <v>48.199999999999996</v>
+      </c>
+      <c r="J73">
+        <f>T11-J42</f>
+        <v>30.5</v>
+      </c>
+      <c r="K73">
+        <f>AF11-K42</f>
+        <v>41.900000000000006</v>
+      </c>
+      <c r="L73">
+        <f>AR11-L42</f>
+        <v>42.1</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="10"/>
+        <v>38.5</v>
+      </c>
+      <c r="O73">
+        <f>I11-O42</f>
+        <v>40</v>
+      </c>
+      <c r="P73">
+        <f>U11-P42</f>
+        <v>34.300000000000004</v>
+      </c>
+      <c r="Q73">
+        <f>AG11-Q42</f>
+        <v>32</v>
+      </c>
+      <c r="R73">
+        <f>AS11-R42</f>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="S73">
         <f t="shared" si="11"/>
-        <v>44.1</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="12"/>
-        <v>36.400000000000006</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="13"/>
-        <v>38.1</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="14"/>
-        <v>32.300000000000004</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="15"/>
-        <v>48.199999999999996</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="16"/>
-        <v>30.5</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="17"/>
-        <v>41.900000000000006</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="18"/>
-        <v>42.1</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="19"/>
-        <v>40</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="20"/>
-        <v>34.300000000000004</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="21"/>
-        <v>32</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="22"/>
-        <v>30.599999999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2.95</v>
       </c>
       <c r="C74">
+        <f t="shared" si="5"/>
+        <v>58.900000000000006</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>52.099999999999994</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="7"/>
+        <v>55.5</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
+        <v>45.5</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="9"/>
+        <v>61.6</v>
+      </c>
+      <c r="I74">
+        <f>H12-I43</f>
+        <v>70.7</v>
+      </c>
+      <c r="J74">
+        <f>T12-J43</f>
+        <v>56.2</v>
+      </c>
+      <c r="K74">
+        <f>AF12-K43</f>
+        <v>63.300000000000004</v>
+      </c>
+      <c r="L74">
+        <f>AR12-L43</f>
+        <v>55</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="10"/>
+        <v>55.2</v>
+      </c>
+      <c r="O74">
+        <f>I12-O43</f>
+        <v>57.5</v>
+      </c>
+      <c r="P74">
+        <f>U12-P43</f>
+        <v>47.8</v>
+      </c>
+      <c r="Q74">
+        <f>AG12-Q43</f>
+        <v>51.599999999999994</v>
+      </c>
+      <c r="R74">
+        <f>AS12-R43</f>
+        <v>45.6</v>
+      </c>
+      <c r="S74">
         <f t="shared" si="11"/>
-        <v>58.900000000000006</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="12"/>
-        <v>52.099999999999994</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="13"/>
-        <v>55.5</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="14"/>
-        <v>45.5</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="15"/>
-        <v>70.7</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="16"/>
-        <v>56.2</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="17"/>
-        <v>63.300000000000004</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="18"/>
-        <v>55</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="19"/>
-        <v>57.5</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="20"/>
-        <v>47.8</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="21"/>
-        <v>51.599999999999994</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="22"/>
-        <v>45.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+        <v>50.300000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>3</v>
       </c>
       <c r="C75">
+        <f t="shared" si="5"/>
+        <v>96.5</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>77.7</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="7"/>
+        <v>78.8</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="8"/>
+        <v>63.3</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
+      <c r="I75">
+        <f>H13-I44</f>
+        <v>109.30000000000001</v>
+      </c>
+      <c r="J75">
+        <f>T13-J44</f>
+        <v>105.4</v>
+      </c>
+      <c r="K75">
+        <f>AF13-K44</f>
+        <v>98.5</v>
+      </c>
+      <c r="L75">
+        <f>AR13-L44</f>
+        <v>92.2</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="10"/>
+        <v>88.8</v>
+      </c>
+      <c r="O75">
+        <f>I13-O44</f>
+        <v>84.3</v>
+      </c>
+      <c r="P75">
+        <f>U13-P44</f>
+        <v>70.900000000000006</v>
+      </c>
+      <c r="Q75">
+        <f>AG13-Q44</f>
+        <v>69.3</v>
+      </c>
+      <c r="R75">
+        <f>AS13-R44</f>
+        <v>64.2</v>
+      </c>
+      <c r="S75">
         <f t="shared" si="11"/>
-        <v>96.5</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="12"/>
-        <v>77.7</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="13"/>
-        <v>78.8</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="14"/>
-        <v>63.3</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="15"/>
-        <v>109.30000000000001</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="16"/>
-        <v>105.4</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="17"/>
-        <v>98.5</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="18"/>
-        <v>92.2</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="19"/>
-        <v>84.3</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="20"/>
-        <v>70.900000000000006</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="21"/>
-        <v>69.3</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="22"/>
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>3.05</v>
       </c>
       <c r="C76">
+        <f t="shared" si="5"/>
+        <v>157.70000000000002</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>138.30000000000001</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>145.30000000000001</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="9"/>
+        <v>162.1</v>
+      </c>
+      <c r="I76">
+        <f>H14-I45</f>
+        <v>248.60000000000002</v>
+      </c>
+      <c r="J76">
+        <f>T14-J45</f>
+        <v>134.29999999999998</v>
+      </c>
+      <c r="K76">
+        <f>AF14-K45</f>
+        <v>142.9</v>
+      </c>
+      <c r="L76">
+        <f>AR14-L45</f>
+        <v>138</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="10"/>
+        <v>132.30000000000001</v>
+      </c>
+      <c r="O76">
+        <f>I14-O45</f>
+        <v>143.20000000000002</v>
+      </c>
+      <c r="P76">
+        <f>U14-P45</f>
+        <v>126.9</v>
+      </c>
+      <c r="Q76">
+        <f>AG14-Q45</f>
+        <v>128.1</v>
+      </c>
+      <c r="R76">
+        <f>AS14-R45</f>
+        <v>118.9</v>
+      </c>
+      <c r="S76">
         <f t="shared" si="11"/>
-        <v>157.70000000000002</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="12"/>
-        <v>138.30000000000001</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="13"/>
-        <v>145.30000000000001</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="14"/>
-        <v>128</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="15"/>
-        <v>248.60000000000002</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="16"/>
-        <v>134.29999999999998</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="17"/>
-        <v>142.9</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="18"/>
-        <v>138</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="19"/>
-        <v>143.20000000000002</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="20"/>
-        <v>126.9</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="21"/>
-        <v>128.1</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="22"/>
-        <v>118.9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>3.1</v>
       </c>
       <c r="C77">
+        <f t="shared" si="5"/>
+        <v>194.4</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>168.2</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>170.5</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>148.70000000000002</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="9"/>
+        <v>187.1</v>
+      </c>
+      <c r="I77">
+        <f>H15-I46</f>
+        <v>195.8</v>
+      </c>
+      <c r="J77">
+        <f>T15-J46</f>
+        <v>200.20000000000002</v>
+      </c>
+      <c r="K77">
+        <f>AF15-K46</f>
+        <v>173.6</v>
+      </c>
+      <c r="L77">
+        <f>AR15-L46</f>
+        <v>167.9</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="10"/>
+        <v>170</v>
+      </c>
+      <c r="O77">
+        <f>I15-O46</f>
+        <v>188.7</v>
+      </c>
+      <c r="P77">
+        <f>U15-P46</f>
+        <v>167.8</v>
+      </c>
+      <c r="Q77">
+        <f>AG15-Q46</f>
+        <v>163.30000000000001</v>
+      </c>
+      <c r="R77">
+        <f>AS15-R46</f>
+        <v>152.80000000000001</v>
+      </c>
+      <c r="S77">
         <f t="shared" si="11"/>
-        <v>194.4</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="12"/>
-        <v>168.2</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="13"/>
-        <v>170.5</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="14"/>
-        <v>148.70000000000002</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="15"/>
-        <v>195.8</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="16"/>
-        <v>200.20000000000002</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="17"/>
-        <v>173.6</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="18"/>
-        <v>167.9</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="19"/>
-        <v>188.7</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="20"/>
-        <v>167.8</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="21"/>
-        <v>163.30000000000001</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="22"/>
-        <v>152.80000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+        <v>169.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>3.15</v>
       </c>
       <c r="C78">
+        <f t="shared" si="5"/>
+        <v>203.9</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>173.9</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="7"/>
+        <v>188.89999999999998</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="8"/>
+        <v>166.4</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="9"/>
+        <v>200.6</v>
+      </c>
+      <c r="I78">
+        <f>H16-I47</f>
+        <v>208.5</v>
+      </c>
+      <c r="J78">
+        <f>T16-J47</f>
+        <v>182.9</v>
+      </c>
+      <c r="K78">
+        <f>AF16-K47</f>
+        <v>192.3</v>
+      </c>
+      <c r="L78">
+        <f>AR16-L47</f>
+        <v>191</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="10"/>
+        <v>200.5</v>
+      </c>
+      <c r="O78">
+        <f>I16-O47</f>
+        <v>203.8</v>
+      </c>
+      <c r="P78">
+        <f>U16-P47</f>
+        <v>184.20000000000002</v>
+      </c>
+      <c r="Q78">
+        <f>AG16-Q47</f>
+        <v>187.5</v>
+      </c>
+      <c r="R78">
+        <f>AS16-R47</f>
+        <v>179.3</v>
+      </c>
+      <c r="S78">
         <f t="shared" si="11"/>
-        <v>203.9</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="12"/>
-        <v>173.9</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="13"/>
-        <v>188.89999999999998</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="14"/>
-        <v>166.4</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="15"/>
-        <v>208.5</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="16"/>
-        <v>182.9</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="17"/>
-        <v>192.3</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="18"/>
-        <v>191</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="19"/>
-        <v>203.8</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="20"/>
-        <v>184.20000000000002</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="21"/>
-        <v>187.5</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="22"/>
-        <v>179.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+        <v>196.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>3.2</v>
       </c>
       <c r="C79">
+        <f t="shared" si="5"/>
+        <v>217.60000000000002</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>172.39999999999998</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="7"/>
+        <v>186.2</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="8"/>
+        <v>164.5</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="9"/>
+        <v>198.70000000000002</v>
+      </c>
+      <c r="I79">
+        <f>H17-I48</f>
+        <v>221.6</v>
+      </c>
+      <c r="J79">
+        <f>T17-J48</f>
+        <v>194</v>
+      </c>
+      <c r="K79">
+        <f>AF17-K48</f>
+        <v>190.4</v>
+      </c>
+      <c r="L79">
+        <f>AR17-L48</f>
+        <v>186.7</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="10"/>
+        <v>193.8</v>
+      </c>
+      <c r="O79">
+        <f>I17-O48</f>
+        <v>220.29999999999998</v>
+      </c>
+      <c r="P79">
+        <f>U17-P48</f>
+        <v>189.29999999999998</v>
+      </c>
+      <c r="Q79">
+        <f>AG17-Q48</f>
+        <v>187.9</v>
+      </c>
+      <c r="R79">
+        <f>AS17-R48</f>
+        <v>182.2</v>
+      </c>
+      <c r="S79">
         <f t="shared" si="11"/>
-        <v>217.60000000000002</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="12"/>
-        <v>172.39999999999998</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="13"/>
-        <v>186.2</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="14"/>
-        <v>164.5</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="15"/>
-        <v>221.6</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="16"/>
-        <v>194</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="17"/>
-        <v>190.4</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="18"/>
-        <v>186.7</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="19"/>
-        <v>220.29999999999998</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="20"/>
-        <v>189.29999999999998</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="21"/>
-        <v>187.9</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="22"/>
-        <v>182.2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+        <v>197.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>3.25</v>
       </c>
       <c r="C80">
+        <f t="shared" si="5"/>
+        <v>223.70000000000002</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>165.60000000000002</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="7"/>
+        <v>197.8</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="8"/>
+        <v>164.79999999999998</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="9"/>
+        <v>219</v>
+      </c>
+      <c r="I80">
+        <f>H18-I49</f>
+        <v>232.29999999999998</v>
+      </c>
+      <c r="J80">
+        <f>T18-J49</f>
+        <v>198.1</v>
+      </c>
+      <c r="K80">
+        <f>AF18-K49</f>
+        <v>201.2</v>
+      </c>
+      <c r="L80">
+        <f>AR18-L49</f>
+        <v>189.3</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="10"/>
+        <v>224</v>
+      </c>
+      <c r="O80">
+        <f>I18-O49</f>
+        <v>226</v>
+      </c>
+      <c r="P80">
+        <f>U18-P49</f>
+        <v>194.9</v>
+      </c>
+      <c r="Q80">
+        <f>AG18-Q49</f>
+        <v>202.70000000000002</v>
+      </c>
+      <c r="R80">
+        <f>AS18-R49</f>
+        <v>187.4</v>
+      </c>
+      <c r="S80">
         <f t="shared" si="11"/>
-        <v>223.70000000000002</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="12"/>
-        <v>165.60000000000002</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="13"/>
-        <v>197.8</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="14"/>
-        <v>164.79999999999998</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="15"/>
-        <v>232.29999999999998</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="16"/>
-        <v>198.1</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="17"/>
-        <v>201.2</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="18"/>
-        <v>189.3</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="19"/>
-        <v>226</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="20"/>
-        <v>194.9</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="21"/>
-        <v>202.70000000000002</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="22"/>
-        <v>187.4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+        <v>218.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>3.3</v>
       </c>
       <c r="C81">
+        <f t="shared" si="5"/>
+        <v>220.20000000000002</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>164.70000000000002</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="7"/>
+        <v>198.39999999999998</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="8"/>
+        <v>173.10000000000002</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="9"/>
+        <v>209.6</v>
+      </c>
+      <c r="I81">
+        <f>H19-I50</f>
+        <v>222.8</v>
+      </c>
+      <c r="J81">
+        <f>T19-J50</f>
+        <v>178.3</v>
+      </c>
+      <c r="K81">
+        <f>AF19-K50</f>
+        <v>210.2</v>
+      </c>
+      <c r="L81">
+        <f>AR19-L50</f>
+        <v>204.79999999999998</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="10"/>
+        <v>211.8</v>
+      </c>
+      <c r="O81">
+        <f>I19-O50</f>
+        <v>221.2</v>
+      </c>
+      <c r="P81">
+        <f>U19-P50</f>
+        <v>198.8</v>
+      </c>
+      <c r="Q81">
+        <f>AG19-Q50</f>
+        <v>209</v>
+      </c>
+      <c r="R81">
+        <f>AS19-R50</f>
+        <v>198.5</v>
+      </c>
+      <c r="S81">
         <f t="shared" si="11"/>
-        <v>220.20000000000002</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="12"/>
-        <v>164.70000000000002</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="13"/>
-        <v>198.39999999999998</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="14"/>
-        <v>173.10000000000002</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="15"/>
-        <v>222.8</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="16"/>
-        <v>178.3</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="17"/>
-        <v>210.2</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="18"/>
-        <v>204.79999999999998</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="19"/>
-        <v>221.2</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="20"/>
-        <v>198.8</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="21"/>
-        <v>209</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="22"/>
-        <v>198.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+        <v>209.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>3.35</v>
       </c>
       <c r="C82">
+        <f t="shared" si="5"/>
+        <v>226.9</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>180.70000000000002</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="7"/>
+        <v>197</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="8"/>
+        <v>163.1</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="9"/>
+        <v>199.4</v>
+      </c>
+      <c r="I82">
+        <f>H20-I51</f>
+        <v>230.5</v>
+      </c>
+      <c r="J82">
+        <f>T20-J51</f>
+        <v>205.2</v>
+      </c>
+      <c r="K82">
+        <f>AF20-K51</f>
+        <v>210.29999999999998</v>
+      </c>
+      <c r="L82">
+        <f>AR20-L51</f>
+        <v>201.39999999999998</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="10"/>
+        <v>199.89999999999998</v>
+      </c>
+      <c r="O82">
+        <f>I20-O51</f>
+        <v>229.4</v>
+      </c>
+      <c r="P82">
+        <f>U20-P51</f>
+        <v>203.9</v>
+      </c>
+      <c r="Q82">
+        <f>AG20-Q51</f>
+        <v>206.9</v>
+      </c>
+      <c r="R82">
+        <f>AS20-R51</f>
+        <v>192.5</v>
+      </c>
+      <c r="S82">
         <f t="shared" si="11"/>
-        <v>226.9</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="12"/>
-        <v>180.70000000000002</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="13"/>
-        <v>197</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="14"/>
-        <v>163.1</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="15"/>
-        <v>230.5</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="16"/>
-        <v>205.2</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="17"/>
-        <v>210.29999999999998</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="18"/>
-        <v>201.39999999999998</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="19"/>
-        <v>229.4</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="20"/>
-        <v>203.9</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="21"/>
-        <v>206.9</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="22"/>
-        <v>192.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+        <v>202.20000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>3.4</v>
       </c>
       <c r="C83">
+        <f t="shared" si="5"/>
+        <v>230.10000000000002</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>160.5</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="7"/>
+        <v>197.9</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="8"/>
+        <v>167.60000000000002</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="9"/>
+        <v>205</v>
+      </c>
+      <c r="I83">
+        <f>H21-I52</f>
+        <v>232.1</v>
+      </c>
+      <c r="J83">
+        <f>T21-J52</f>
+        <v>201</v>
+      </c>
+      <c r="K83">
+        <f>AF21-K52</f>
+        <v>206</v>
+      </c>
+      <c r="L83">
+        <f>AR21-L52</f>
+        <v>203.4</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="10"/>
+        <v>214.4</v>
+      </c>
+      <c r="O83">
+        <f>I21-O52</f>
+        <v>229.2</v>
+      </c>
+      <c r="P83">
+        <f>U21-P52</f>
+        <v>192.5</v>
+      </c>
+      <c r="Q83">
+        <f>AG21-Q52</f>
+        <v>204</v>
+      </c>
+      <c r="R83">
+        <f>AS21-R52</f>
+        <v>197.8</v>
+      </c>
+      <c r="S83">
         <f t="shared" si="11"/>
-        <v>230.10000000000002</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="12"/>
-        <v>160.5</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="13"/>
-        <v>197.9</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="14"/>
-        <v>167.60000000000002</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="15"/>
-        <v>232.1</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="16"/>
-        <v>201</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="17"/>
-        <v>206</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="18"/>
-        <v>203.4</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="19"/>
-        <v>229.2</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="21"/>
-        <v>204</v>
-      </c>
-      <c r="P83">
-        <f t="shared" si="22"/>
-        <v>197.8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+        <v>208.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>3.45</v>
       </c>
       <c r="C84">
+        <f t="shared" si="5"/>
+        <v>225.6</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>165.8</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="7"/>
+        <v>185.89999999999998</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="8"/>
+        <v>173.9</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="9"/>
+        <v>215.29999999999998</v>
+      </c>
+      <c r="I84">
+        <f>H22-I53</f>
+        <v>241.29999999999998</v>
+      </c>
+      <c r="J84">
+        <f>T22-J53</f>
+        <v>176.3</v>
+      </c>
+      <c r="K84">
+        <f>AF22-K53</f>
+        <v>198.7</v>
+      </c>
+      <c r="L84">
+        <f>AR22-L53</f>
+        <v>199.3</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="10"/>
+        <v>221.29999999999998</v>
+      </c>
+      <c r="O84">
+        <f>I22-O53</f>
+        <v>225.8</v>
+      </c>
+      <c r="P84">
+        <f>U22-P53</f>
+        <v>198.3</v>
+      </c>
+      <c r="Q84">
+        <f>AG22-Q53</f>
+        <v>201.3</v>
+      </c>
+      <c r="R84">
+        <f>AS22-R53</f>
+        <v>197.8</v>
+      </c>
+      <c r="S84">
         <f t="shared" si="11"/>
-        <v>225.6</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="12"/>
-        <v>165.8</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="13"/>
-        <v>185.89999999999998</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="14"/>
-        <v>173.9</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="15"/>
-        <v>241.29999999999998</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="16"/>
-        <v>176.3</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="17"/>
-        <v>198.7</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="18"/>
-        <v>199.3</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="19"/>
-        <v>225.8</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="20"/>
-        <v>198.3</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="21"/>
-        <v>201.3</v>
-      </c>
-      <c r="P84">
-        <f t="shared" si="22"/>
-        <v>197.8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+        <v>218.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>3.5</v>
       </c>
       <c r="C85">
+        <f t="shared" si="5"/>
+        <v>235.89999999999998</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>173.60000000000002</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="7"/>
+        <v>197.7</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="8"/>
+        <v>182.3</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="9"/>
+        <v>215.10000000000002</v>
+      </c>
+      <c r="I85" t="e">
+        <f>H23-I54</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J85">
+        <f>T23-J54</f>
+        <v>191.60000000000002</v>
+      </c>
+      <c r="K85">
+        <f>AF23-K54</f>
+        <v>210</v>
+      </c>
+      <c r="L85">
+        <f>AR23-L54</f>
+        <v>194.39999999999998</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="10"/>
+        <v>214.8</v>
+      </c>
+      <c r="O85">
+        <f>I23-O54</f>
+        <v>236.7</v>
+      </c>
+      <c r="P85">
+        <f>U23-P54</f>
+        <v>194.6</v>
+      </c>
+      <c r="Q85">
+        <f>AG23-Q54</f>
+        <v>205.8</v>
+      </c>
+      <c r="R85">
+        <f>AS23-R54</f>
+        <v>193.10000000000002</v>
+      </c>
+      <c r="S85">
         <f t="shared" si="11"/>
-        <v>235.89999999999998</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="12"/>
-        <v>173.60000000000002</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="13"/>
-        <v>197.7</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="14"/>
-        <v>182.3</v>
-      </c>
-      <c r="H85" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="16"/>
-        <v>191.60000000000002</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="17"/>
-        <v>210</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="18"/>
-        <v>194.39999999999998</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="19"/>
-        <v>236.7</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="20"/>
-        <v>194.6</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="21"/>
-        <v>205.8</v>
-      </c>
-      <c r="P85">
-        <f t="shared" si="22"/>
-        <v>193.10000000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+        <v>215.20000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>3.55</v>
       </c>
       <c r="C86">
+        <f t="shared" si="5"/>
+        <v>226.50000000000003</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>172.70000000000002</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="7"/>
+        <v>205</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="8"/>
+        <v>170.7</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="9"/>
+        <v>225.3</v>
+      </c>
+      <c r="I86" t="e">
+        <f>H24-I55</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J86">
+        <f>T24-J55</f>
+        <v>189.1</v>
+      </c>
+      <c r="K86">
+        <f>AF24-K55</f>
+        <v>205.2</v>
+      </c>
+      <c r="L86">
+        <f>AR24-L55</f>
+        <v>195.6</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="10"/>
+        <v>224.5</v>
+      </c>
+      <c r="O86">
+        <f>I24-O55</f>
+        <v>226.6</v>
+      </c>
+      <c r="P86">
+        <f>U24-P55</f>
+        <v>195.5</v>
+      </c>
+      <c r="Q86">
+        <f>AG24-Q55</f>
+        <v>203.8</v>
+      </c>
+      <c r="R86">
+        <f>AS24-R55</f>
+        <v>193.6</v>
+      </c>
+      <c r="S86">
         <f t="shared" si="11"/>
-        <v>226.50000000000003</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="12"/>
-        <v>172.70000000000002</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="13"/>
-        <v>205</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="14"/>
-        <v>170.7</v>
-      </c>
-      <c r="H86" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="16"/>
-        <v>189.1</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="17"/>
-        <v>205.2</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="18"/>
-        <v>195.6</v>
-      </c>
-      <c r="M86">
-        <f t="shared" si="19"/>
-        <v>226.6</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="20"/>
-        <v>195.5</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="21"/>
-        <v>203.8</v>
-      </c>
-      <c r="P86">
-        <f t="shared" si="22"/>
-        <v>193.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+        <v>224.89999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>3.6</v>
       </c>
       <c r="C87">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="6"/>
+        <v>183.2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="7"/>
+        <v>202.8</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="8"/>
+        <v>168.99999999999997</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="9"/>
+        <v>214.60000000000002</v>
+      </c>
+      <c r="I87" t="e">
+        <f>H25-I56</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J87">
+        <f>T25-J56</f>
+        <v>205.10000000000002</v>
+      </c>
+      <c r="K87">
+        <f>AF25-K56</f>
+        <v>199.89999999999998</v>
+      </c>
+      <c r="L87">
+        <f>AR25-L56</f>
+        <v>195.6</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="10"/>
+        <v>220.20000000000002</v>
+      </c>
+      <c r="O87">
+        <f>I25-O56</f>
+        <v>231.2</v>
+      </c>
+      <c r="P87">
+        <f>U25-P56</f>
+        <v>185.9</v>
+      </c>
+      <c r="Q87">
+        <f>AG25-Q56</f>
+        <v>201.60000000000002</v>
+      </c>
+      <c r="R87">
+        <f>AS25-R56</f>
+        <v>192.4</v>
+      </c>
+      <c r="S87">
         <f t="shared" si="11"/>
-        <v>237</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="12"/>
-        <v>183.2</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="13"/>
-        <v>202.8</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="14"/>
-        <v>168.99999999999997</v>
-      </c>
-      <c r="H87" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="16"/>
-        <v>205.10000000000002</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="17"/>
-        <v>199.89999999999998</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="18"/>
-        <v>195.6</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="19"/>
-        <v>231.2</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="20"/>
-        <v>185.9</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="21"/>
-        <v>201.60000000000002</v>
-      </c>
-      <c r="P87">
-        <f t="shared" si="22"/>
-        <v>192.4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+        <v>219.10000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>3.65</v>
       </c>
       <c r="C88">
+        <f t="shared" si="5"/>
+        <v>246.49999999999997</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>162.90000000000003</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="7"/>
+        <v>202.39999999999998</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="8"/>
+        <v>180.49999999999997</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="9"/>
+        <v>220.1</v>
+      </c>
+      <c r="I88" t="e">
+        <f>H26-I57</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J88">
+        <f>T26-J57</f>
+        <v>160.60000000000002</v>
+      </c>
+      <c r="K88">
+        <f>AF26-K57</f>
+        <v>203.3</v>
+      </c>
+      <c r="L88">
+        <f>AR26-L57</f>
+        <v>206.8</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="10"/>
+        <v>239</v>
+      </c>
+      <c r="O88">
+        <f>I26-O57</f>
+        <v>242.20000000000002</v>
+      </c>
+      <c r="P88">
+        <f>U26-P57</f>
+        <v>177.99999999999997</v>
+      </c>
+      <c r="Q88">
+        <f>AG26-Q57</f>
+        <v>197.10000000000002</v>
+      </c>
+      <c r="R88">
+        <f>AS26-R57</f>
+        <v>195.39999999999998</v>
+      </c>
+      <c r="S88">
         <f t="shared" si="11"/>
-        <v>246.49999999999997</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="12"/>
-        <v>162.90000000000003</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="13"/>
-        <v>202.39999999999998</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="14"/>
-        <v>180.49999999999997</v>
-      </c>
-      <c r="H88" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="16"/>
-        <v>160.60000000000002</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="17"/>
-        <v>203.3</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="18"/>
-        <v>206.8</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="19"/>
-        <v>242.20000000000002</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="20"/>
-        <v>177.99999999999997</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="21"/>
-        <v>197.10000000000002</v>
-      </c>
-      <c r="P88">
-        <f t="shared" si="22"/>
-        <v>195.39999999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>3.7</v>
       </c>
       <c r="C89">
+        <f t="shared" si="5"/>
+        <v>254.40000000000003</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>183.89999999999998</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="7"/>
+        <v>214.1</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="8"/>
+        <v>196.1</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="9"/>
+        <v>227.70000000000002</v>
+      </c>
+      <c r="I89" t="e">
+        <f>H27-I58</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J89">
+        <f>T27-J58</f>
+        <v>202</v>
+      </c>
+      <c r="K89">
+        <f>AF27-K58</f>
+        <v>221.2</v>
+      </c>
+      <c r="L89">
+        <f>AR27-L58</f>
+        <v>230.89999999999998</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="10"/>
+        <v>240.2</v>
+      </c>
+      <c r="O89">
+        <f>I27-O58</f>
+        <v>236.5</v>
+      </c>
+      <c r="P89">
+        <f>U27-P58</f>
+        <v>180.00000000000003</v>
+      </c>
+      <c r="Q89">
+        <f>AG27-Q58</f>
+        <v>212.49999999999997</v>
+      </c>
+      <c r="R89">
+        <f>AS27-R58</f>
+        <v>206.2</v>
+      </c>
+      <c r="S89">
         <f t="shared" si="11"/>
-        <v>254.40000000000003</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="12"/>
-        <v>183.89999999999998</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="13"/>
-        <v>214.1</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="14"/>
-        <v>196.1</v>
-      </c>
-      <c r="H89" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="16"/>
-        <v>202</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="17"/>
-        <v>221.2</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="18"/>
-        <v>230.89999999999998</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="19"/>
-        <v>236.5</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="20"/>
-        <v>180.00000000000003</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="21"/>
-        <v>212.49999999999997</v>
-      </c>
-      <c r="P89">
-        <f t="shared" si="22"/>
-        <v>206.2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+        <v>224.50000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>3.75</v>
       </c>
       <c r="C90">
+        <f t="shared" si="5"/>
+        <v>235.99999999999997</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="7"/>
+        <v>182.99999999999994</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="8"/>
+        <v>182.00000000000003</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="9"/>
+        <v>238.89999999999998</v>
+      </c>
+      <c r="I90" t="e">
+        <f>H28-I59</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J90">
+        <f>T28-J59</f>
+        <v>200.99999999999997</v>
+      </c>
+      <c r="K90">
+        <f>AF28-K59</f>
+        <v>243</v>
+      </c>
+      <c r="L90">
+        <f>AR28-L59</f>
+        <v>248.4</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="10"/>
+        <v>247.39999999999998</v>
+      </c>
+      <c r="O90">
+        <f>I28-O59</f>
+        <v>219.5</v>
+      </c>
+      <c r="P90">
+        <f>U28-P59</f>
+        <v>177.5</v>
+      </c>
+      <c r="Q90">
+        <f>AG28-Q59</f>
+        <v>215.3</v>
+      </c>
+      <c r="R90">
+        <f>AS28-R59</f>
+        <v>214.29999999999998</v>
+      </c>
+      <c r="S90">
         <f t="shared" si="11"/>
-        <v>235.99999999999997</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="12"/>
-        <v>175</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="13"/>
-        <v>182.99999999999994</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="14"/>
-        <v>182.00000000000003</v>
-      </c>
-      <c r="H90" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="16"/>
-        <v>200.99999999999997</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="17"/>
-        <v>243</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="18"/>
-        <v>248.4</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="19"/>
-        <v>219.5</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="20"/>
-        <v>177.5</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="21"/>
-        <v>215.3</v>
-      </c>
-      <c r="P90">
-        <f t="shared" si="22"/>
-        <v>214.29999999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+        <v>224.79999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>3.8</v>
       </c>
       <c r="C91">
+        <f t="shared" si="5"/>
+        <v>279</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="6"/>
+        <v>208</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="7"/>
+        <v>203.29999999999995</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="8"/>
+        <v>245.4</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="9"/>
+        <v>249.60000000000002</v>
+      </c>
+      <c r="I91" t="e">
+        <f>H29-I60</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J91">
+        <f>T29-J60</f>
+        <v>254.2</v>
+      </c>
+      <c r="K91">
+        <f>AF29-K60</f>
+        <v>298.8</v>
+      </c>
+      <c r="L91">
+        <f>AR29-L60</f>
+        <v>298</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="10"/>
+        <v>302.79999999999995</v>
+      </c>
+      <c r="O91">
+        <f>I29-O60</f>
+        <v>236.7</v>
+      </c>
+      <c r="P91">
+        <f>U29-P60</f>
+        <v>194.8</v>
+      </c>
+      <c r="Q91">
+        <f>AG29-Q60</f>
+        <v>237.3</v>
+      </c>
+      <c r="R91">
+        <f>AS29-R60</f>
+        <v>233.10000000000002</v>
+      </c>
+      <c r="S91">
         <f t="shared" si="11"/>
-        <v>279</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="12"/>
-        <v>208</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="13"/>
-        <v>203.29999999999995</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="14"/>
-        <v>245.4</v>
-      </c>
-      <c r="H91" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="16"/>
-        <v>254.2</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="17"/>
-        <v>298.8</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="18"/>
-        <v>298</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="19"/>
-        <v>236.7</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="20"/>
-        <v>194.8</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="21"/>
-        <v>237.3</v>
-      </c>
-      <c r="P91">
-        <f t="shared" si="22"/>
-        <v>233.10000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+        <v>231.90000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>17</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>3</v>
       </c>
-      <c r="M95" t="s">
+      <c r="O95" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>0</v>
       </c>
@@ -6458,32 +7769,41 @@
       <c r="F96" t="s">
         <v>15</v>
       </c>
-      <c r="H96" t="s">
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s">
         <v>13</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>12</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>14</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>15</v>
       </c>
       <c r="M96" t="s">
+        <v>19</v>
+      </c>
+      <c r="O96" t="s">
         <v>13</v>
       </c>
-      <c r="N96" t="s">
+      <c r="P96" t="s">
         <v>16</v>
       </c>
-      <c r="O96" t="s">
+      <c r="Q96" t="s">
         <v>14</v>
       </c>
-      <c r="P96" t="s">
+      <c r="R96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>0</v>
       </c>
@@ -6503,1362 +7823,1674 @@
         <f>AU4-F35</f>
         <v>3.4</v>
       </c>
-      <c r="H97">
-        <f>L4-H35</f>
+      <c r="G97">
+        <f>BG4-G35</f>
         <v>0</v>
       </c>
       <c r="I97">
-        <f>X4-I35</f>
+        <f>L4-I35</f>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f>X4-J35</f>
         <v>5.7000000000000028</v>
       </c>
-      <c r="J97">
-        <f>AJ4-J35</f>
+      <c r="K97">
+        <f>AJ4-K35</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K97">
-        <f>AV4-K35</f>
+      <c r="L97">
+        <f>AV4-L35</f>
         <v>6.5</v>
       </c>
       <c r="M97">
-        <f>M4-M35</f>
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <f>Y4-N35</f>
+        <f>BH4-M35</f>
+        <v>-0.6</v>
+      </c>
+      <c r="O97">
+        <f>M4-O35</f>
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <f>Y4-P35</f>
         <v>-0.5</v>
       </c>
-      <c r="O97">
-        <f>AK4-O35</f>
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <f>AW4-P35</f>
+      <c r="Q97">
+        <f>AK4-Q35</f>
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <f>AW4-R35</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S97">
+        <f>BI4-S35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>2.4</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:C122" si="23">K5-C36</f>
+        <f t="shared" ref="C98:C122" si="12">K5-C36</f>
         <v>-0.19999999999999998</v>
       </c>
       <c r="D98">
-        <f t="shared" ref="D98:D122" si="24">W5-D36</f>
+        <f t="shared" ref="D98:D122" si="13">W5-D36</f>
         <v>-4.5999999999999996</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:E122" si="25">AI5-E36</f>
+        <f t="shared" ref="E98:E122" si="14">AI5-E36</f>
         <v>-0.2</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98:F122" si="26">AU5-F36</f>
+        <f t="shared" ref="F98:F122" si="15">AU5-F36</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="H98">
-        <f t="shared" ref="H98:H122" si="27">L5-H36</f>
+      <c r="G98">
+        <f t="shared" ref="G98:G122" si="16">BG5-G36</f>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f>L5-I36</f>
         <v>0.2</v>
       </c>
-      <c r="I98">
-        <f t="shared" ref="I98:I122" si="28">X5-I36</f>
+      <c r="J98">
+        <f>X5-J36</f>
         <v>-20.900000000000002</v>
       </c>
-      <c r="J98">
-        <f t="shared" ref="J98:J122" si="29">AJ5-J36</f>
+      <c r="K98">
+        <f>AJ5-K36</f>
         <v>2.3000000000000003</v>
       </c>
-      <c r="K98">
-        <f t="shared" ref="K98:K122" si="30">AV5-K36</f>
+      <c r="L98">
+        <f>AV5-L36</f>
         <v>7</v>
       </c>
       <c r="M98">
-        <f t="shared" ref="M98:M122" si="31">M5-M36</f>
+        <f t="shared" ref="M98:M122" si="17">BH5-M36</f>
+        <v>-1.2</v>
+      </c>
+      <c r="O98">
+        <f>M5-O36</f>
         <v>0.1</v>
       </c>
-      <c r="N98">
-        <f t="shared" ref="N98:N122" si="32">Y5-N36</f>
+      <c r="P98">
+        <f>Y5-P36</f>
         <v>-1.4000000000000001</v>
       </c>
-      <c r="O98">
-        <f t="shared" ref="O98:O122" si="33">AK5-O36</f>
-        <v>0</v>
-      </c>
-      <c r="P98">
-        <f t="shared" ref="P98:P122" si="34">AW5-P36</f>
+      <c r="Q98">
+        <f>AK5-Q36</f>
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <f>AW5-R36</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S98">
+        <f t="shared" ref="S98:S122" si="18">BI5-S36</f>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>2.5</v>
       </c>
       <c r="C99">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="D99">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>-2.5000000000000004</v>
       </c>
       <c r="E99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>-0.4</v>
       </c>
       <c r="F99">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>3.6</v>
       </c>
-      <c r="H99">
-        <f t="shared" si="27"/>
+      <c r="G99">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="I99">
+        <f>L6-I37</f>
         <v>-0.1</v>
       </c>
-      <c r="I99">
-        <f t="shared" si="28"/>
+      <c r="J99">
+        <f>X6-J37</f>
         <v>-2.5000000000000018</v>
       </c>
-      <c r="J99">
-        <f t="shared" si="29"/>
+      <c r="K99">
+        <f>AJ6-K37</f>
         <v>-0.60000000000000009</v>
       </c>
-      <c r="K99">
-        <f t="shared" si="30"/>
+      <c r="L99">
+        <f>AV6-L37</f>
         <v>12</v>
       </c>
       <c r="M99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>-0.9</v>
+      </c>
+      <c r="O99">
+        <f>M6-O37</f>
         <v>-0.1</v>
       </c>
-      <c r="N99">
-        <f t="shared" si="32"/>
+      <c r="P99">
+        <f>Y6-P37</f>
         <v>-0.10000000000000009</v>
       </c>
-      <c r="O99">
-        <f t="shared" si="33"/>
+      <c r="Q99">
+        <f>AK6-Q37</f>
         <v>-0.1</v>
       </c>
-      <c r="P99">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R99">
+        <f>AW6-R37</f>
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>2.6</v>
       </c>
       <c r="C100">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>-2.1</v>
       </c>
       <c r="D100">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>-5.1000000000000005</v>
       </c>
       <c r="E100">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0.3</v>
       </c>
       <c r="F100">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>7.4</v>
       </c>
-      <c r="H100">
-        <f t="shared" si="27"/>
+      <c r="G100">
+        <f t="shared" si="16"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="I100">
+        <f>L7-I38</f>
         <v>-0.2</v>
       </c>
-      <c r="I100">
-        <f t="shared" si="28"/>
+      <c r="J100">
+        <f>X7-J38</f>
         <v>-23.3</v>
       </c>
-      <c r="J100">
-        <f t="shared" si="29"/>
+      <c r="K100">
+        <f>AJ7-K38</f>
         <v>0.80000000000000027</v>
       </c>
-      <c r="K100">
-        <f t="shared" si="30"/>
+      <c r="L100">
+        <f>AV7-L38</f>
         <v>27.9</v>
       </c>
       <c r="M100">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>-1.9</v>
+      </c>
+      <c r="O100">
+        <f>M7-O38</f>
         <v>-1</v>
       </c>
-      <c r="N100">
-        <f t="shared" si="32"/>
+      <c r="P100">
+        <f>Y7-P38</f>
         <v>-1.4</v>
       </c>
-      <c r="O100">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <f t="shared" si="34"/>
+      <c r="Q100">
+        <f>AK7-Q38</f>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f>AW7-R38</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S100">
+        <f t="shared" si="18"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>2.7</v>
       </c>
       <c r="C101">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>-1.0999999999999999</v>
       </c>
       <c r="D101">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>-0.60000000000000053</v>
       </c>
       <c r="E101">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F101">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>5.8999999999999995</v>
       </c>
-      <c r="H101">
-        <f t="shared" si="27"/>
+      <c r="G101">
+        <f t="shared" si="16"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="I101">
+        <f>L8-I39</f>
         <v>1.0999999999999999</v>
       </c>
-      <c r="I101">
-        <f t="shared" si="28"/>
+      <c r="J101">
+        <f>X8-J39</f>
         <v>17.700000000000003</v>
       </c>
-      <c r="J101">
-        <f t="shared" si="29"/>
+      <c r="K101">
+        <f>AJ8-K39</f>
         <v>-1.5999999999999999</v>
       </c>
-      <c r="K101">
-        <f t="shared" si="30"/>
+      <c r="L101">
+        <f>AV8-L39</f>
         <v>23.799999999999997</v>
       </c>
       <c r="M101">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>-3.8999999999999995</v>
+      </c>
+      <c r="O101">
+        <f>M8-O39</f>
         <v>0.8</v>
       </c>
-      <c r="N101">
-        <f t="shared" si="32"/>
+      <c r="P101">
+        <f>Y8-P39</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="O101">
-        <f t="shared" si="33"/>
+      <c r="Q101">
+        <f>AK8-Q39</f>
         <v>0.1</v>
       </c>
-      <c r="P101">
-        <f t="shared" si="34"/>
+      <c r="R101">
+        <f>AW8-R39</f>
         <v>0.70000000000000007</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S101">
+        <f t="shared" si="18"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>2.8</v>
       </c>
       <c r="C102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="D102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>-2.1000000000000014</v>
       </c>
       <c r="E102">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>4.6999999999999993</v>
       </c>
       <c r="F102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>7.6999999999999993</v>
       </c>
-      <c r="H102">
-        <f t="shared" si="27"/>
+      <c r="G102">
+        <f t="shared" si="16"/>
+        <v>10.3</v>
+      </c>
+      <c r="I102">
+        <f>L9-I40</f>
         <v>8</v>
       </c>
-      <c r="I102">
-        <f t="shared" si="28"/>
+      <c r="J102">
+        <f>X9-J40</f>
         <v>-6.2999999999999972</v>
       </c>
-      <c r="J102">
-        <f t="shared" si="29"/>
+      <c r="K102">
+        <f>AJ9-K40</f>
         <v>7.1</v>
       </c>
-      <c r="K102">
-        <f t="shared" si="30"/>
+      <c r="L102">
+        <f>AV9-L40</f>
         <v>11.4</v>
       </c>
       <c r="M102">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>8.9</v>
+      </c>
+      <c r="O102">
+        <f>M9-O40</f>
         <v>5.8</v>
       </c>
-      <c r="N102">
-        <f t="shared" si="32"/>
+      <c r="P102">
+        <f>Y9-P40</f>
         <v>0.70000000000000018</v>
       </c>
-      <c r="O102">
-        <f t="shared" si="33"/>
+      <c r="Q102">
+        <f>AK9-Q40</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="P102">
-        <f t="shared" si="34"/>
+      <c r="R102">
+        <f>AW9-R40</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S102">
+        <f t="shared" si="18"/>
+        <v>7.3999999999999995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>2.85</v>
       </c>
       <c r="C103">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>20.399999999999999</v>
       </c>
       <c r="D103">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>10.3</v>
       </c>
       <c r="E103">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="F103">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>13.000000000000002</v>
       </c>
-      <c r="H103">
-        <f t="shared" si="27"/>
+      <c r="G103">
+        <f t="shared" si="16"/>
+        <v>28.400000000000002</v>
+      </c>
+      <c r="I103">
+        <f>L10-I41</f>
         <v>21</v>
       </c>
-      <c r="I103">
-        <f t="shared" si="28"/>
+      <c r="J103">
+        <f>X10-J41</f>
         <v>31</v>
       </c>
-      <c r="J103">
-        <f t="shared" si="29"/>
+      <c r="K103">
+        <f>AJ10-K41</f>
         <v>14.799999999999999</v>
       </c>
-      <c r="K103">
-        <f t="shared" si="30"/>
+      <c r="L103">
+        <f>AV10-L41</f>
         <v>19.3</v>
       </c>
       <c r="M103">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>22.099999999999998</v>
+      </c>
+      <c r="O103">
+        <f>M10-O41</f>
         <v>15.5</v>
       </c>
-      <c r="N103">
-        <f t="shared" si="32"/>
+      <c r="P103">
+        <f>Y10-P41</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="O103">
-        <f t="shared" si="33"/>
+      <c r="Q103">
+        <f>AK10-Q41</f>
         <v>10.8</v>
       </c>
-      <c r="P103">
-        <f t="shared" si="34"/>
+      <c r="R103">
+        <f>AW10-R41</f>
         <v>6.4</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S103">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>2.9</v>
       </c>
       <c r="C104">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>41.6</v>
       </c>
       <c r="D104">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>22.3</v>
       </c>
       <c r="E104">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>38.200000000000003</v>
       </c>
       <c r="F104">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>32.6</v>
       </c>
-      <c r="H104">
-        <f t="shared" si="27"/>
+      <c r="G104">
+        <f t="shared" si="16"/>
+        <v>45.1</v>
+      </c>
+      <c r="I104">
+        <f>L11-I42</f>
         <v>37.9</v>
       </c>
-      <c r="I104">
-        <f t="shared" si="28"/>
+      <c r="J104">
+        <f>X11-J42</f>
         <v>17</v>
       </c>
-      <c r="J104">
-        <f t="shared" si="29"/>
+      <c r="K104">
+        <f>AJ11-K42</f>
         <v>29.900000000000002</v>
       </c>
-      <c r="K104">
-        <f t="shared" si="30"/>
+      <c r="L104">
+        <f>AV11-L42</f>
         <v>49.900000000000006</v>
       </c>
       <c r="M104">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>32.4</v>
+      </c>
+      <c r="O104">
+        <f>M11-O42</f>
         <v>33.200000000000003</v>
       </c>
-      <c r="N104">
-        <f t="shared" si="32"/>
+      <c r="P104">
+        <f>Y11-P42</f>
         <v>19.599999999999998</v>
       </c>
-      <c r="O104">
-        <f t="shared" si="33"/>
+      <c r="Q104">
+        <f>AK11-Q42</f>
         <v>27.900000000000002</v>
       </c>
-      <c r="P104">
-        <f t="shared" si="34"/>
+      <c r="R104">
+        <f>AW11-R42</f>
         <v>22.8</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S104">
+        <f t="shared" si="18"/>
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>2.95</v>
       </c>
       <c r="C105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="D105">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>46.2</v>
       </c>
       <c r="E105">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>53.2</v>
       </c>
       <c r="F105">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="H105">
-        <f t="shared" si="27"/>
+      <c r="G105">
+        <f t="shared" si="16"/>
+        <v>58.4</v>
+      </c>
+      <c r="I105">
+        <f>L12-I43</f>
         <v>59.199999999999996</v>
       </c>
-      <c r="I105">
-        <f t="shared" si="28"/>
+      <c r="J105">
+        <f>X12-J43</f>
         <v>76.5</v>
       </c>
-      <c r="J105">
-        <f t="shared" si="29"/>
+      <c r="K105">
+        <f>AJ12-K43</f>
         <v>47.5</v>
       </c>
-      <c r="K105">
-        <f t="shared" si="30"/>
+      <c r="L105">
+        <f>AV12-L43</f>
         <v>58.6</v>
       </c>
       <c r="M105">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="O105">
+        <f>M12-O43</f>
         <v>55.199999999999996</v>
       </c>
-      <c r="N105">
-        <f t="shared" si="32"/>
+      <c r="P105">
+        <f>Y12-P43</f>
         <v>38.6</v>
       </c>
-      <c r="O105">
-        <f t="shared" si="33"/>
+      <c r="Q105">
+        <f>AK12-Q43</f>
         <v>43.199999999999996</v>
       </c>
-      <c r="P105">
-        <f t="shared" si="34"/>
+      <c r="R105">
+        <f>AW12-R43</f>
         <v>38.6</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S105">
+        <f t="shared" si="18"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>3</v>
       </c>
       <c r="C106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>95.9</v>
       </c>
       <c r="D106">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>63.8</v>
       </c>
       <c r="E106">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>83.2</v>
       </c>
       <c r="F106">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>64.099999999999994</v>
       </c>
-      <c r="H106">
-        <f t="shared" si="27"/>
+      <c r="G106">
+        <f t="shared" si="16"/>
+        <v>101.3</v>
+      </c>
+      <c r="I106">
+        <f>L13-I44</f>
         <v>87.7</v>
       </c>
-      <c r="I106">
-        <f t="shared" si="28"/>
+      <c r="J106">
+        <f>X13-J44</f>
         <v>58.7</v>
       </c>
-      <c r="J106">
-        <f t="shared" si="29"/>
+      <c r="K106">
+        <f>AJ13-K44</f>
         <v>68.300000000000011</v>
       </c>
-      <c r="K106">
-        <f t="shared" si="30"/>
+      <c r="L106">
+        <f>AV13-L44</f>
         <v>70.100000000000009</v>
       </c>
       <c r="M106">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>76.7</v>
+      </c>
+      <c r="O106">
+        <f>M13-O44</f>
         <v>77.900000000000006</v>
       </c>
-      <c r="N106">
-        <f t="shared" si="32"/>
+      <c r="P106">
+        <f>Y13-P44</f>
         <v>58.8</v>
       </c>
-      <c r="O106">
-        <f t="shared" si="33"/>
+      <c r="Q106">
+        <f>AK13-Q44</f>
         <v>62</v>
       </c>
-      <c r="P106">
-        <f t="shared" si="34"/>
+      <c r="R106">
+        <f>AW13-R44</f>
         <v>57.7</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S106">
+        <f t="shared" si="18"/>
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>3.05</v>
       </c>
       <c r="C107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>211</v>
       </c>
       <c r="D107">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>103.6</v>
       </c>
       <c r="E107">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>145.80000000000001</v>
       </c>
       <c r="F107">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>129</v>
       </c>
-      <c r="H107">
-        <f t="shared" si="27"/>
+      <c r="G107">
+        <f t="shared" si="16"/>
+        <v>150.1</v>
+      </c>
+      <c r="I107">
+        <f>L14-I45</f>
         <v>251.2</v>
       </c>
-      <c r="I107">
-        <f t="shared" si="28"/>
+      <c r="J107">
+        <f>X14-J45</f>
         <v>81</v>
       </c>
-      <c r="J107">
-        <f t="shared" si="29"/>
+      <c r="K107">
+        <f>AJ14-K45</f>
         <v>110.10000000000001</v>
       </c>
-      <c r="K107">
-        <f t="shared" si="30"/>
+      <c r="L107">
+        <f>AV14-L45</f>
         <v>160</v>
       </c>
       <c r="M107">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>115.2</v>
+      </c>
+      <c r="O107">
+        <f>M14-O45</f>
         <v>150.4</v>
       </c>
-      <c r="N107">
-        <f t="shared" si="32"/>
+      <c r="P107">
+        <f>Y14-P45</f>
         <v>86.1</v>
       </c>
-      <c r="O107">
-        <f t="shared" si="33"/>
+      <c r="Q107">
+        <f>AK14-Q45</f>
         <v>107.5</v>
       </c>
-      <c r="P107">
-        <f t="shared" si="34"/>
+      <c r="R107">
+        <f>AW14-R45</f>
         <v>98.8</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S107">
+        <f t="shared" si="18"/>
+        <v>114.60000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>3.1</v>
       </c>
       <c r="C108">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>196.60000000000002</v>
       </c>
       <c r="D108">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>149.29999999999998</v>
       </c>
       <c r="E108">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>169.2</v>
       </c>
       <c r="F108">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>160.80000000000001</v>
       </c>
-      <c r="H108">
-        <f t="shared" si="27"/>
+      <c r="G108">
+        <f t="shared" si="16"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="I108">
+        <f>L15-I46</f>
         <v>181.5</v>
       </c>
-      <c r="I108">
-        <f t="shared" si="28"/>
+      <c r="J108">
+        <f>X15-J46</f>
         <v>144.60000000000002</v>
       </c>
-      <c r="J108">
-        <f t="shared" si="29"/>
+      <c r="K108">
+        <f>AJ15-K46</f>
         <v>147.80000000000001</v>
       </c>
-      <c r="K108">
-        <f t="shared" si="30"/>
+      <c r="L108">
+        <f>AV15-L46</f>
         <v>157.4</v>
       </c>
       <c r="M108">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>149.79999999999998</v>
+      </c>
+      <c r="O108">
+        <f>M15-O46</f>
         <v>179.1</v>
       </c>
-      <c r="N108">
-        <f t="shared" si="32"/>
+      <c r="P108">
+        <f>Y15-P46</f>
         <v>134.9</v>
       </c>
-      <c r="O108">
-        <f t="shared" si="33"/>
+      <c r="Q108">
+        <f>AK15-Q46</f>
         <v>142.30000000000001</v>
       </c>
-      <c r="P108">
-        <f t="shared" si="34"/>
+      <c r="R108">
+        <f>AW15-R46</f>
         <v>145.4</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S108">
+        <f t="shared" si="18"/>
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>3.15</v>
       </c>
       <c r="C109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>207.3</v>
       </c>
       <c r="D109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>170.6</v>
       </c>
       <c r="E109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>181.89999999999998</v>
       </c>
       <c r="F109">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>173.8</v>
       </c>
-      <c r="H109">
-        <f t="shared" si="27"/>
+      <c r="G109">
+        <f t="shared" si="16"/>
+        <v>182.1</v>
+      </c>
+      <c r="I109">
+        <f>L16-I47</f>
         <v>203.4</v>
       </c>
-      <c r="I109">
-        <f t="shared" si="28"/>
+      <c r="J109">
+        <f>X16-J47</f>
         <v>178.8</v>
       </c>
-      <c r="J109">
-        <f t="shared" si="29"/>
+      <c r="K109">
+        <f>AJ16-K47</f>
         <v>173.1</v>
       </c>
-      <c r="K109">
-        <f t="shared" si="30"/>
+      <c r="L109">
+        <f>AV16-L47</f>
         <v>180</v>
       </c>
       <c r="M109">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>169.9</v>
+      </c>
+      <c r="O109">
+        <f>M16-O47</f>
         <v>201.8</v>
       </c>
-      <c r="N109">
-        <f t="shared" si="32"/>
+      <c r="P109">
+        <f>Y16-P47</f>
         <v>169.8</v>
       </c>
-      <c r="O109">
-        <f t="shared" si="33"/>
+      <c r="Q109">
+        <f>AK16-Q47</f>
         <v>168.29999999999998</v>
       </c>
-      <c r="P109">
-        <f t="shared" si="34"/>
+      <c r="R109">
+        <f>AW16-R47</f>
         <v>171.8</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S109">
+        <f t="shared" si="18"/>
+        <v>168.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>3.2</v>
       </c>
       <c r="C110">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>226.60000000000002</v>
       </c>
       <c r="D110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>178.3</v>
       </c>
       <c r="E110">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>195.3</v>
       </c>
       <c r="F110">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>184.7</v>
       </c>
-      <c r="H110">
-        <f t="shared" si="27"/>
+      <c r="G110">
+        <f t="shared" si="16"/>
+        <v>183.9</v>
+      </c>
+      <c r="I110">
+        <f>L17-I48</f>
         <v>228.5</v>
       </c>
-      <c r="I110">
-        <f t="shared" si="28"/>
+      <c r="J110">
+        <f>X17-J48</f>
         <v>183.10000000000002</v>
       </c>
-      <c r="J110">
-        <f t="shared" si="29"/>
+      <c r="K110">
+        <f>AJ17-K48</f>
         <v>193.1</v>
       </c>
-      <c r="K110">
-        <f t="shared" si="30"/>
+      <c r="L110">
+        <f>AV17-L48</f>
         <v>211.9</v>
       </c>
       <c r="M110">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>173.5</v>
+      </c>
+      <c r="O110">
+        <f>M17-O48</f>
         <v>227.2</v>
       </c>
-      <c r="N110">
-        <f t="shared" si="32"/>
+      <c r="P110">
+        <f>Y17-P48</f>
         <v>195.2</v>
       </c>
-      <c r="O110">
-        <f t="shared" si="33"/>
+      <c r="Q110">
+        <f>AK17-Q48</f>
         <v>189.6</v>
       </c>
-      <c r="P110">
-        <f t="shared" si="34"/>
+      <c r="R110">
+        <f>AW17-R48</f>
         <v>193.2</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S110">
+        <f t="shared" si="18"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>3.25</v>
       </c>
       <c r="C111">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>218.6</v>
       </c>
       <c r="D111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>159.69999999999999</v>
       </c>
       <c r="E111">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>192.1</v>
       </c>
       <c r="F111">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>187.79999999999998</v>
       </c>
-      <c r="H111">
-        <f t="shared" si="27"/>
+      <c r="G111">
+        <f t="shared" si="16"/>
+        <v>191</v>
+      </c>
+      <c r="I111">
+        <f>L18-I49</f>
         <v>226.79999999999998</v>
       </c>
-      <c r="I111">
-        <f t="shared" si="28"/>
+      <c r="J111">
+        <f>X18-J49</f>
         <v>187.2</v>
       </c>
-      <c r="J111">
-        <f t="shared" si="29"/>
+      <c r="K111">
+        <f>AJ18-K49</f>
         <v>192.39999999999998</v>
       </c>
-      <c r="K111">
-        <f t="shared" si="30"/>
+      <c r="L111">
+        <f>AV18-L49</f>
         <v>216.6</v>
       </c>
       <c r="M111">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>184.1</v>
+      </c>
+      <c r="O111">
+        <f>M18-O49</f>
         <v>222.4</v>
       </c>
-      <c r="N111">
-        <f t="shared" si="32"/>
+      <c r="P111">
+        <f>Y18-P49</f>
         <v>186.9</v>
       </c>
-      <c r="O111">
-        <f t="shared" si="33"/>
+      <c r="Q111">
+        <f>AK18-Q49</f>
         <v>192.8</v>
       </c>
-      <c r="P111">
-        <f t="shared" si="34"/>
+      <c r="R111">
+        <f>AW18-R49</f>
         <v>202.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S111">
+        <f t="shared" si="18"/>
+        <v>182.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>3.3</v>
       </c>
       <c r="C112">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>229.60000000000002</v>
       </c>
       <c r="D112">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>163.70000000000002</v>
       </c>
       <c r="E112">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>188.89999999999998</v>
       </c>
       <c r="F112">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>190.10000000000002</v>
       </c>
-      <c r="H112">
-        <f t="shared" si="27"/>
+      <c r="G112">
+        <f t="shared" si="16"/>
+        <v>197.89999999999998</v>
+      </c>
+      <c r="I112">
+        <f>L19-I50</f>
         <v>239</v>
       </c>
-      <c r="I112">
-        <f t="shared" si="28"/>
+      <c r="J112">
+        <f>X19-J50</f>
         <v>182</v>
       </c>
-      <c r="J112">
-        <f t="shared" si="29"/>
+      <c r="K112">
+        <f>AJ19-K50</f>
         <v>196.7</v>
       </c>
-      <c r="K112">
-        <f t="shared" si="30"/>
+      <c r="L112">
+        <f>AV19-L50</f>
         <v>222.29999999999998</v>
       </c>
       <c r="M112">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>185.5</v>
+      </c>
+      <c r="O112">
+        <f>M19-O50</f>
         <v>233.5</v>
       </c>
-      <c r="N112">
-        <f t="shared" si="32"/>
+      <c r="P112">
+        <f>Y19-P50</f>
         <v>195.70000000000002</v>
       </c>
-      <c r="O112">
-        <f t="shared" si="33"/>
+      <c r="Q112">
+        <f>AK19-Q50</f>
         <v>196.29999999999998</v>
       </c>
-      <c r="P112">
-        <f t="shared" si="34"/>
+      <c r="R112">
+        <f>AW19-R50</f>
         <v>209.1</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S112">
+        <f t="shared" si="18"/>
+        <v>187.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>3.35</v>
       </c>
       <c r="C113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>227.9</v>
       </c>
       <c r="D113">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>180.4</v>
       </c>
       <c r="E113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>194</v>
       </c>
       <c r="F113">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>174.4</v>
       </c>
-      <c r="H113">
-        <f t="shared" si="27"/>
+      <c r="G113">
+        <f t="shared" si="16"/>
+        <v>202</v>
+      </c>
+      <c r="I113">
+        <f>L20-I51</f>
         <v>237.99999999999997</v>
       </c>
-      <c r="I113">
-        <f t="shared" si="28"/>
+      <c r="J113">
+        <f>X20-J51</f>
         <v>194.89999999999998</v>
       </c>
-      <c r="J113">
-        <f t="shared" si="29"/>
+      <c r="K113">
+        <f>AJ20-K51</f>
         <v>200.2</v>
       </c>
-      <c r="K113">
-        <f t="shared" si="30"/>
+      <c r="L113">
+        <f>AV20-L51</f>
         <v>212.5</v>
       </c>
       <c r="M113">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>192.79999999999998</v>
+      </c>
+      <c r="O113">
+        <f>M20-O51</f>
         <v>231</v>
       </c>
-      <c r="N113">
-        <f t="shared" si="32"/>
+      <c r="P113">
+        <f>Y20-P51</f>
         <v>206.20000000000002</v>
       </c>
-      <c r="O113">
-        <f t="shared" si="33"/>
+      <c r="Q113">
+        <f>AK20-Q51</f>
         <v>201</v>
       </c>
-      <c r="P113">
-        <f t="shared" si="34"/>
+      <c r="R113">
+        <f>AW20-R51</f>
         <v>197.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S113">
+        <f t="shared" si="18"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>3.4</v>
       </c>
       <c r="C114">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>231.10000000000002</v>
       </c>
       <c r="D114">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>165.3</v>
       </c>
       <c r="E114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>201.70000000000002</v>
       </c>
       <c r="F114">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>186</v>
       </c>
-      <c r="H114">
-        <f t="shared" si="27"/>
+      <c r="G114">
+        <f t="shared" si="16"/>
+        <v>215.3</v>
+      </c>
+      <c r="I114">
+        <f>L21-I52</f>
         <v>240.7</v>
       </c>
-      <c r="I114">
-        <f t="shared" si="28"/>
+      <c r="J114">
+        <f>X21-J52</f>
         <v>206.89999999999998</v>
       </c>
-      <c r="J114">
-        <f t="shared" si="29"/>
+      <c r="K114">
+        <f>AJ21-K52</f>
         <v>206.20000000000002</v>
       </c>
-      <c r="K114">
-        <f t="shared" si="30"/>
+      <c r="L114">
+        <f>AV21-L52</f>
         <v>214.2</v>
       </c>
       <c r="M114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>204.3</v>
+      </c>
+      <c r="O114">
+        <f>M21-O52</f>
         <v>234.6</v>
       </c>
-      <c r="N114">
-        <f t="shared" si="32"/>
+      <c r="P114">
+        <f>Y21-P52</f>
         <v>197.60000000000002</v>
       </c>
-      <c r="O114">
-        <f t="shared" si="33"/>
+      <c r="Q114">
+        <f>AK21-Q52</f>
         <v>204.9</v>
       </c>
-      <c r="P114">
-        <f t="shared" si="34"/>
+      <c r="R114">
+        <f>AW21-R52</f>
         <v>207.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S114">
+        <f t="shared" si="18"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>3.45</v>
       </c>
       <c r="C115">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>228.1</v>
       </c>
       <c r="D115">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>159</v>
       </c>
       <c r="E115">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>193.3</v>
       </c>
       <c r="F115">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>185.6</v>
       </c>
-      <c r="H115">
-        <f t="shared" si="27"/>
+      <c r="G115">
+        <f t="shared" si="16"/>
+        <v>215.4</v>
+      </c>
+      <c r="I115">
+        <f>L22-I53</f>
         <v>240.20000000000002</v>
       </c>
-      <c r="I115">
-        <f t="shared" si="28"/>
+      <c r="J115">
+        <f>X22-J53</f>
         <v>192</v>
       </c>
-      <c r="J115">
-        <f t="shared" si="29"/>
+      <c r="K115">
+        <f>AJ22-K53</f>
         <v>206.2</v>
       </c>
-      <c r="K115">
-        <f t="shared" si="30"/>
+      <c r="L115">
+        <f>AV22-L53</f>
         <v>216.9</v>
       </c>
       <c r="M115">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>198.2</v>
+      </c>
+      <c r="O115">
+        <f>M22-O53</f>
         <v>232.9</v>
       </c>
-      <c r="N115">
-        <f t="shared" si="32"/>
+      <c r="P115">
+        <f>Y22-P53</f>
         <v>182.70000000000002</v>
       </c>
-      <c r="O115">
-        <f t="shared" si="33"/>
+      <c r="Q115">
+        <f>AK22-Q53</f>
         <v>205.3</v>
       </c>
-      <c r="P115">
-        <f t="shared" si="34"/>
+      <c r="R115">
+        <f>AW22-R53</f>
         <v>199.7</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S115">
+        <f t="shared" si="18"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>3.5</v>
       </c>
       <c r="C116">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>227.39999999999998</v>
       </c>
       <c r="D116">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>193.40000000000003</v>
       </c>
       <c r="E116">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>192.7</v>
       </c>
       <c r="F116">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>197.29999999999998</v>
       </c>
-      <c r="H116">
-        <f t="shared" si="27"/>
+      <c r="G116">
+        <f t="shared" si="16"/>
+        <v>225.7</v>
+      </c>
+      <c r="I116">
+        <f>L23-I54</f>
         <v>246.09999999999997</v>
       </c>
-      <c r="I116">
-        <f t="shared" si="28"/>
+      <c r="J116">
+        <f>X23-J54</f>
         <v>239.5</v>
       </c>
-      <c r="J116">
-        <f t="shared" si="29"/>
+      <c r="K116">
+        <f>AJ23-K54</f>
         <v>197.89999999999998</v>
       </c>
-      <c r="K116">
-        <f t="shared" si="30"/>
+      <c r="L116">
+        <f>AV23-L54</f>
         <v>213.39999999999998</v>
       </c>
       <c r="M116">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>208.10000000000002</v>
+      </c>
+      <c r="O116">
+        <f>M23-O54</f>
         <v>235.8</v>
       </c>
-      <c r="N116">
-        <f t="shared" si="32"/>
+      <c r="P116">
+        <f>Y23-P54</f>
         <v>208.7</v>
       </c>
-      <c r="O116">
-        <f t="shared" si="33"/>
+      <c r="Q116">
+        <f>AK23-Q54</f>
         <v>196.39999999999998</v>
       </c>
-      <c r="P116">
-        <f t="shared" si="34"/>
+      <c r="R116">
+        <f>AW23-R54</f>
         <v>198.60000000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S116">
+        <f t="shared" si="18"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>3.55</v>
       </c>
       <c r="C117">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>215.20000000000002</v>
       </c>
       <c r="D117">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>172.9</v>
       </c>
       <c r="E117">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>209.60000000000002</v>
       </c>
       <c r="F117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>189.7</v>
       </c>
-      <c r="H117">
-        <f t="shared" si="27"/>
+      <c r="G117">
+        <f t="shared" si="16"/>
+        <v>235.5</v>
+      </c>
+      <c r="I117">
+        <f>L24-I55</f>
         <v>241.40000000000003</v>
       </c>
-      <c r="I117">
-        <f t="shared" si="28"/>
+      <c r="J117">
+        <f>X24-J55</f>
         <v>161.00000000000003</v>
       </c>
-      <c r="J117">
-        <f t="shared" si="29"/>
+      <c r="K117">
+        <f>AJ24-K55</f>
         <v>205.7</v>
       </c>
-      <c r="K117">
-        <f t="shared" si="30"/>
+      <c r="L117">
+        <f>AV24-L55</f>
         <v>218.4</v>
       </c>
       <c r="M117">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>214.3</v>
+      </c>
+      <c r="O117">
+        <f>M24-O55</f>
         <v>228.4</v>
       </c>
-      <c r="N117">
-        <f t="shared" si="32"/>
+      <c r="P117">
+        <f>Y24-P55</f>
         <v>190.7</v>
       </c>
-      <c r="O117">
-        <f t="shared" si="33"/>
+      <c r="Q117">
+        <f>AK24-Q55</f>
         <v>202.8</v>
       </c>
-      <c r="P117">
-        <f t="shared" si="34"/>
+      <c r="R117">
+        <f>AW24-R55</f>
         <v>205.7</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S117">
+        <f t="shared" si="18"/>
+        <v>210.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>3.6</v>
       </c>
       <c r="C118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>221.2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>168</v>
       </c>
       <c r="E118">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>199.89999999999998</v>
       </c>
       <c r="F118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>196.6</v>
       </c>
-      <c r="H118">
-        <f t="shared" si="27"/>
+      <c r="G118">
+        <f t="shared" si="16"/>
+        <v>240.8</v>
+      </c>
+      <c r="I118">
+        <f>L25-I56</f>
         <v>250.9</v>
       </c>
-      <c r="I118">
-        <f t="shared" si="28"/>
+      <c r="J118">
+        <f>X25-J56</f>
         <v>173.40000000000003</v>
       </c>
-      <c r="J118">
-        <f t="shared" si="29"/>
+      <c r="K118">
+        <f>AJ25-K56</f>
         <v>197.8</v>
       </c>
-      <c r="K118">
-        <f t="shared" si="30"/>
+      <c r="L118">
+        <f>AV25-L56</f>
         <v>236.20000000000002</v>
       </c>
       <c r="M118">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>221.6</v>
+      </c>
+      <c r="O118">
+        <f>M25-O56</f>
         <v>233</v>
       </c>
-      <c r="N118">
-        <f t="shared" si="32"/>
+      <c r="P118">
+        <f>Y25-P56</f>
         <v>185.6</v>
       </c>
-      <c r="O118">
-        <f t="shared" si="33"/>
+      <c r="Q118">
+        <f>AK25-Q56</f>
         <v>197.7</v>
       </c>
-      <c r="P118">
-        <f t="shared" si="34"/>
+      <c r="R118">
+        <f>AW25-R56</f>
         <v>208.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S118">
+        <f t="shared" si="18"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>3.65</v>
       </c>
       <c r="C119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>217.4</v>
       </c>
       <c r="D119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>157.19999999999999</v>
       </c>
       <c r="E119">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>192.3</v>
       </c>
       <c r="F119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>184.49999999999997</v>
       </c>
-      <c r="H119">
-        <f t="shared" si="27"/>
+      <c r="G119">
+        <f t="shared" si="16"/>
+        <v>232.9</v>
+      </c>
+      <c r="I119">
+        <f>L26-I57</f>
         <v>251.4</v>
       </c>
-      <c r="I119">
-        <f t="shared" si="28"/>
+      <c r="J119">
+        <f>X26-J57</f>
         <v>164.7</v>
       </c>
-      <c r="J119">
-        <f t="shared" si="29"/>
+      <c r="K119">
+        <f>AJ26-K57</f>
         <v>194.2</v>
       </c>
-      <c r="K119">
-        <f t="shared" si="30"/>
+      <c r="L119">
+        <f>AV26-L57</f>
         <v>236.39999999999998</v>
       </c>
       <c r="M119">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>224.39999999999998</v>
+      </c>
+      <c r="O119">
+        <f>M26-O57</f>
         <v>227.9</v>
       </c>
-      <c r="N119">
-        <f t="shared" si="32"/>
+      <c r="P119">
+        <f>Y26-P57</f>
         <v>178.70000000000002</v>
       </c>
-      <c r="O119">
-        <f t="shared" si="33"/>
+      <c r="Q119">
+        <f>AK26-Q57</f>
         <v>189.7</v>
       </c>
-      <c r="P119">
-        <f t="shared" si="34"/>
+      <c r="R119">
+        <f>AW26-R57</f>
         <v>198.59999999999997</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S119">
+        <f t="shared" si="18"/>
+        <v>214.09999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>3.7</v>
       </c>
       <c r="C120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>231.2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>150.09999999999997</v>
       </c>
       <c r="E120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>246.79999999999998</v>
       </c>
       <c r="F120">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>190.70000000000002</v>
       </c>
-      <c r="H120">
-        <f t="shared" si="27"/>
+      <c r="G120">
+        <f t="shared" si="16"/>
+        <v>269.20000000000005</v>
+      </c>
+      <c r="I120">
+        <f>L27-I58</f>
         <v>264.8</v>
       </c>
-      <c r="I120">
-        <f t="shared" si="28"/>
+      <c r="J120">
+        <f>X27-J58</f>
         <v>154.80000000000001</v>
       </c>
-      <c r="J120">
-        <f t="shared" si="29"/>
+      <c r="K120">
+        <f>AJ27-K58</f>
         <v>229.89999999999998</v>
       </c>
-      <c r="K120">
-        <f t="shared" si="30"/>
+      <c r="L120">
+        <f>AV27-L58</f>
         <v>236.89999999999998</v>
       </c>
       <c r="M120">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>258.10000000000002</v>
+      </c>
+      <c r="O120">
+        <f>M27-O58</f>
         <v>233.60000000000002</v>
       </c>
-      <c r="N120">
-        <f t="shared" si="32"/>
+      <c r="P120">
+        <f>Y27-P58</f>
         <v>165.1</v>
       </c>
-      <c r="O120">
-        <f t="shared" si="33"/>
+      <c r="Q120">
+        <f>AK27-Q58</f>
         <v>222.79999999999998</v>
       </c>
-      <c r="P120">
-        <f t="shared" si="34"/>
+      <c r="R120">
+        <f>AW27-R58</f>
         <v>210.2</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S120">
+        <f t="shared" si="18"/>
+        <v>234.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>3.75</v>
       </c>
       <c r="C121">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>220.9</v>
       </c>
       <c r="D121">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>157.79999999999995</v>
       </c>
       <c r="E121">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>209.8</v>
       </c>
       <c r="F121">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>182.6</v>
       </c>
-      <c r="H121">
-        <f t="shared" si="27"/>
+      <c r="G121">
+        <f t="shared" si="16"/>
+        <v>329.59999999999997</v>
+      </c>
+      <c r="I121">
+        <f>L28-I59</f>
         <v>262</v>
       </c>
-      <c r="I121">
-        <f t="shared" si="28"/>
+      <c r="J121">
+        <f>X28-J59</f>
         <v>178.79999999999998</v>
       </c>
-      <c r="J121">
-        <f t="shared" si="29"/>
+      <c r="K121">
+        <f>AJ28-K59</f>
         <v>238</v>
       </c>
-      <c r="K121">
-        <f t="shared" si="30"/>
+      <c r="L121">
+        <f>AV28-L59</f>
         <v>260.10000000000002</v>
       </c>
       <c r="M121">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>284.59999999999997</v>
+      </c>
+      <c r="O121">
+        <f>M28-O59</f>
         <v>218.10000000000002</v>
       </c>
-      <c r="N121">
-        <f t="shared" si="32"/>
+      <c r="P121">
+        <f>Y28-P59</f>
         <v>162.69999999999999</v>
       </c>
-      <c r="O121">
-        <f t="shared" si="33"/>
+      <c r="Q121">
+        <f>AK28-Q59</f>
         <v>226.8</v>
       </c>
-      <c r="P121">
-        <f t="shared" si="34"/>
+      <c r="R121">
+        <f>AW28-R59</f>
         <v>224.29999999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S121">
+        <f t="shared" si="18"/>
+        <v>260.29999999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>3.8</v>
       </c>
       <c r="C122">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>266.7</v>
       </c>
       <c r="D122">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>187.5</v>
       </c>
       <c r="E122">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>206.60000000000002</v>
       </c>
       <c r="F122">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>257.20000000000005</v>
       </c>
-      <c r="H122">
-        <f t="shared" si="27"/>
+      <c r="G122">
+        <f t="shared" si="16"/>
+        <v>280.5</v>
+      </c>
+      <c r="I122">
+        <f>L29-I60</f>
         <v>329.6</v>
       </c>
-      <c r="I122">
-        <f t="shared" si="28"/>
+      <c r="J122">
+        <f>X29-J60</f>
         <v>187.7</v>
       </c>
-      <c r="J122">
-        <f t="shared" si="29"/>
+      <c r="K122">
+        <f>AJ29-K60</f>
         <v>257.39999999999998</v>
       </c>
-      <c r="K122">
-        <f t="shared" si="30"/>
+      <c r="L122">
+        <f>AV29-L60</f>
         <v>321.60000000000002</v>
       </c>
       <c r="M122">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
+        <v>261.70000000000005</v>
+      </c>
+      <c r="O122">
+        <f>M29-O60</f>
         <v>234.60000000000002</v>
       </c>
-      <c r="N122">
-        <f t="shared" si="32"/>
+      <c r="P122">
+        <f>Y29-P60</f>
         <v>187</v>
       </c>
-      <c r="O122">
-        <f t="shared" si="33"/>
+      <c r="Q122">
+        <f>AK29-Q60</f>
         <v>229.3</v>
       </c>
-      <c r="P122">
-        <f t="shared" si="34"/>
+      <c r="R122">
+        <f>AW29-R60</f>
         <v>233.7</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="18"/>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
